--- a/assets/uctovani-v6.xlsx
+++ b/assets/uctovani-v6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867D0388-4640-4D6F-A2DB-F69C52B0BF9D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9175FFD0-BE70-4C9A-9B4C-0A780C6162F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="16380" windowHeight="8190" tabRatio="512" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="16380" windowHeight="8190" tabRatio="512" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Souhrnný AKCE_TABORY" sheetId="1" state="hidden" r:id="rId1"/>
@@ -612,7 +612,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="236">
   <si>
     <t>V y ú č t o v á n í</t>
   </si>
@@ -1315,9 +1315,6 @@
     <t>Místo:</t>
   </si>
   <si>
-    <t>Dno pytle</t>
-  </si>
-  <si>
     <t>Začátek:</t>
   </si>
   <si>
@@ -1325,9 +1322,6 @@
   </si>
   <si>
     <t>Vede:</t>
-  </si>
-  <si>
-    <t>Gandalf Šedý</t>
   </si>
   <si>
     <t>1/ do 15let:</t>
@@ -2426,7 +2420,7 @@
     <xf numFmtId="164" fontId="54" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="283">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
@@ -2789,10 +2783,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2820,9 +2810,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2925,46 +2912,20 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="21" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2987,46 +2948,52 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="21" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="35" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="37" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="36" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="169" fontId="35" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="36" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3047,17 +3014,31 @@
     <xf numFmtId="169" fontId="28" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="35" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="35" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="37" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3072,14 +3053,16 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3095,6 +3078,24 @@
     </xf>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -5455,26 +5456,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="219" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
+      <c r="A1" s="217" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="29.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="220" t="s">
+      <c r="A2" s="218" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
@@ -5483,7 +5484,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="221"/>
+      <c r="G3" s="219"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
@@ -5492,7 +5493,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="221"/>
+      <c r="G4" s="219"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
@@ -5501,7 +5502,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="221"/>
+      <c r="G5" s="219"/>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
@@ -5567,11 +5568,11 @@
       <c r="A12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="222"/>
-      <c r="D12" s="222"/>
-      <c r="E12" s="222"/>
-      <c r="F12" s="222"/>
-      <c r="G12" s="222"/>
+      <c r="C12" s="220"/>
+      <c r="D12" s="220"/>
+      <c r="E12" s="220"/>
+      <c r="F12" s="220"/>
+      <c r="G12" s="220"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
@@ -5592,10 +5593,10 @@
       <c r="D14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="223" t="s">
+      <c r="E14" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="223"/>
+      <c r="F14" s="221"/>
       <c r="G14" s="21" t="s">
         <v>9</v>
       </c>
@@ -5611,10 +5612,10 @@
       <c r="D15" s="23">
         <v>40195</v>
       </c>
-      <c r="E15" s="224" t="s">
+      <c r="E15" s="222" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="224"/>
+      <c r="F15" s="222"/>
       <c r="G15" s="24">
         <v>1000</v>
       </c>
@@ -5626,8 +5627,8 @@
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
-      <c r="E16" s="218"/>
-      <c r="F16" s="218"/>
+      <c r="E16" s="216"/>
+      <c r="F16" s="216"/>
       <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
@@ -5637,8 +5638,8 @@
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
-      <c r="E17" s="218"/>
-      <c r="F17" s="218"/>
+      <c r="E17" s="216"/>
+      <c r="F17" s="216"/>
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
@@ -5648,8 +5649,8 @@
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
-      <c r="E18" s="218"/>
-      <c r="F18" s="218"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="216"/>
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
@@ -5659,8 +5660,8 @@
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
-      <c r="E19" s="218"/>
-      <c r="F19" s="218"/>
+      <c r="E19" s="216"/>
+      <c r="F19" s="216"/>
       <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -5670,8 +5671,8 @@
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
-      <c r="E20" s="218"/>
-      <c r="F20" s="218"/>
+      <c r="E20" s="216"/>
+      <c r="F20" s="216"/>
       <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -5681,8 +5682,8 @@
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
-      <c r="E21" s="218"/>
-      <c r="F21" s="218"/>
+      <c r="E21" s="216"/>
+      <c r="F21" s="216"/>
       <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -5692,8 +5693,8 @@
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
-      <c r="E22" s="218"/>
-      <c r="F22" s="218"/>
+      <c r="E22" s="216"/>
+      <c r="F22" s="216"/>
       <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -5703,8 +5704,8 @@
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
-      <c r="E23" s="218"/>
-      <c r="F23" s="218"/>
+      <c r="E23" s="216"/>
+      <c r="F23" s="216"/>
       <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -5714,8 +5715,8 @@
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
-      <c r="E24" s="218"/>
-      <c r="F24" s="218"/>
+      <c r="E24" s="216"/>
+      <c r="F24" s="216"/>
       <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -5725,8 +5726,8 @@
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
-      <c r="E25" s="218"/>
-      <c r="F25" s="218"/>
+      <c r="E25" s="216"/>
+      <c r="F25" s="216"/>
       <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -5736,8 +5737,8 @@
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
-      <c r="E26" s="218"/>
-      <c r="F26" s="218"/>
+      <c r="E26" s="216"/>
+      <c r="F26" s="216"/>
       <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -5747,8 +5748,8 @@
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
-      <c r="E27" s="218"/>
-      <c r="F27" s="218"/>
+      <c r="E27" s="216"/>
+      <c r="F27" s="216"/>
       <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -5758,8 +5759,8 @@
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
-      <c r="E28" s="218"/>
-      <c r="F28" s="218"/>
+      <c r="E28" s="216"/>
+      <c r="F28" s="216"/>
       <c r="G28" s="24"/>
     </row>
     <row r="29" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -5769,8 +5770,8 @@
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
-      <c r="E29" s="218"/>
-      <c r="F29" s="218"/>
+      <c r="E29" s="216"/>
+      <c r="F29" s="216"/>
       <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -5780,8 +5781,8 @@
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
-      <c r="E30" s="218"/>
-      <c r="F30" s="218"/>
+      <c r="E30" s="216"/>
+      <c r="F30" s="216"/>
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -5791,8 +5792,8 @@
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
-      <c r="E31" s="218"/>
-      <c r="F31" s="218"/>
+      <c r="E31" s="216"/>
+      <c r="F31" s="216"/>
       <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -5802,8 +5803,8 @@
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
-      <c r="E32" s="218"/>
-      <c r="F32" s="218"/>
+      <c r="E32" s="216"/>
+      <c r="F32" s="216"/>
       <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -5813,8 +5814,8 @@
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
-      <c r="E33" s="218"/>
-      <c r="F33" s="218"/>
+      <c r="E33" s="216"/>
+      <c r="F33" s="216"/>
       <c r="G33" s="24"/>
     </row>
     <row r="34" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -5824,8 +5825,8 @@
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
-      <c r="E34" s="218"/>
-      <c r="F34" s="218"/>
+      <c r="E34" s="216"/>
+      <c r="F34" s="216"/>
       <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -5835,8 +5836,8 @@
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
-      <c r="E35" s="218"/>
-      <c r="F35" s="218"/>
+      <c r="E35" s="216"/>
+      <c r="F35" s="216"/>
       <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -5846,8 +5847,8 @@
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
-      <c r="E36" s="218"/>
-      <c r="F36" s="218"/>
+      <c r="E36" s="216"/>
+      <c r="F36" s="216"/>
       <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -5857,8 +5858,8 @@
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
-      <c r="E37" s="218"/>
-      <c r="F37" s="218"/>
+      <c r="E37" s="216"/>
+      <c r="F37" s="216"/>
       <c r="G37" s="24"/>
     </row>
     <row r="38" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -5868,8 +5869,8 @@
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
-      <c r="E38" s="218"/>
-      <c r="F38" s="218"/>
+      <c r="E38" s="216"/>
+      <c r="F38" s="216"/>
       <c r="G38" s="24"/>
     </row>
     <row r="39" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -5879,8 +5880,8 @@
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
-      <c r="E39" s="218"/>
-      <c r="F39" s="218"/>
+      <c r="E39" s="216"/>
+      <c r="F39" s="216"/>
       <c r="G39" s="24"/>
     </row>
     <row r="40" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -5890,8 +5891,8 @@
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
-      <c r="E40" s="218"/>
-      <c r="F40" s="218"/>
+      <c r="E40" s="216"/>
+      <c r="F40" s="216"/>
       <c r="G40" s="24"/>
     </row>
     <row r="41" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -5901,8 +5902,8 @@
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
-      <c r="E41" s="218"/>
-      <c r="F41" s="218"/>
+      <c r="E41" s="216"/>
+      <c r="F41" s="216"/>
       <c r="G41" s="24"/>
     </row>
     <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5945,6 +5946,26 @@
   </sheetData>
   <sheetProtection sheet="1"/>
   <mergeCells count="32">
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -5957,26 +5978,6 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5993,9 +5994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="B11:E26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6012,13 +6011,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="194" t="str">
+      <c r="A1" s="192" t="str">
         <f>'Seznam účastníků'!A1</f>
         <v>Kondor - Skupina ŠÁN - Podolské nábřeží 5, Praha 4 - Podolí, 147 00</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="184" t="str">
+      <c r="A2" s="182" t="str">
         <f>'Seznam účastníků'!A2</f>
         <v>Neočekávaný dýchánek</v>
       </c>
@@ -6027,543 +6026,543 @@
       <c r="A4" s="156" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="276" t="str">
+      <c r="B4" s="273">
         <f>'Seznam účastníků'!B4</f>
-        <v>Dno pytle</v>
-      </c>
-      <c r="C4" s="276"/>
+        <v>0</v>
+      </c>
+      <c r="C4" s="273"/>
       <c r="D4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="156" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="277">
+        <v>194</v>
+      </c>
+      <c r="B5" s="274">
         <f>'Seznam účastníků'!B5</f>
-        <v>40177</v>
-      </c>
-      <c r="C5" s="277"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="274"/>
       <c r="D5"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="156" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" s="277">
+        <v>195</v>
+      </c>
+      <c r="B6" s="274">
         <f>'Seznam účastníků'!B6</f>
-        <v>40180</v>
-      </c>
-      <c r="C6" s="277"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="274"/>
       <c r="D6"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="156" t="s">
-        <v>197</v>
-      </c>
-      <c r="B7" s="276" t="str">
+        <v>196</v>
+      </c>
+      <c r="B7" s="273">
         <f>'Seznam účastníků'!B7</f>
-        <v>Gandalf Šedý</v>
-      </c>
-      <c r="C7" s="276"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="273"/>
       <c r="D7"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="168"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="279" t="s">
+      <c r="A9" s="276" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="276"/>
+    </row>
+    <row r="11" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="193" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="178"/>
+      <c r="D11" s="194"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="178"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="178"/>
+      <c r="J11" s="178"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="178"/>
+      <c r="M11" s="178"/>
+    </row>
+    <row r="12" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="193"/>
+      <c r="C12" s="178"/>
+      <c r="D12" s="194"/>
+      <c r="F12" s="178" t="s">
         <v>213</v>
       </c>
-      <c r="B9" s="279"/>
-    </row>
-    <row r="11" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="195" t="s">
-        <v>214</v>
-      </c>
-      <c r="C11" s="179"/>
-      <c r="D11" s="196"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="179"/>
-      <c r="L11" s="179"/>
-      <c r="M11" s="179"/>
-    </row>
-    <row r="12" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="195"/>
-      <c r="C12" s="179"/>
-      <c r="D12" s="196"/>
-      <c r="F12" s="179" t="s">
-        <v>215</v>
-      </c>
-      <c r="G12" s="179"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="179"/>
-      <c r="J12" s="179"/>
-      <c r="K12" s="179"/>
-      <c r="L12" s="179"/>
-      <c r="M12" s="179"/>
-      <c r="N12" s="179"/>
+      <c r="G12" s="178"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="178"/>
+      <c r="J12" s="178"/>
+      <c r="K12" s="178"/>
+      <c r="L12" s="178"/>
+      <c r="M12" s="178"/>
+      <c r="N12" s="178"/>
     </row>
     <row r="13" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="195"/>
-      <c r="C13" s="179"/>
-      <c r="D13" s="196"/>
-      <c r="E13" s="179"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="179"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="179"/>
-      <c r="J13" s="179"/>
-      <c r="K13" s="179"/>
-      <c r="L13" s="179"/>
-      <c r="M13" s="179"/>
-      <c r="N13" s="179"/>
+      <c r="A13" s="193"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="194"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="178"/>
+      <c r="K13" s="178"/>
+      <c r="L13" s="178"/>
+      <c r="M13" s="178"/>
+      <c r="N13" s="178"/>
     </row>
     <row r="14" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="195"/>
-      <c r="C14" s="179"/>
-      <c r="D14" s="196"/>
-      <c r="E14" s="179"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="179"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="179"/>
-      <c r="J14" s="179"/>
-      <c r="K14" s="179"/>
-      <c r="L14" s="179"/>
-      <c r="M14" s="179"/>
-      <c r="N14" s="179"/>
+      <c r="A14" s="193"/>
+      <c r="C14" s="178"/>
+      <c r="D14" s="194"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="178"/>
+      <c r="K14" s="178"/>
+      <c r="L14" s="178"/>
+      <c r="M14" s="178"/>
+      <c r="N14" s="178"/>
     </row>
     <row r="15" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="195" t="s">
-        <v>215</v>
-      </c>
-      <c r="C15" s="179"/>
-      <c r="D15" s="196"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="179"/>
-      <c r="J15" s="179"/>
-      <c r="K15" s="179"/>
-      <c r="L15" s="179"/>
-      <c r="M15" s="179"/>
-      <c r="N15" s="179"/>
+      <c r="A15" s="193" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="178"/>
+      <c r="D15" s="194"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="178"/>
+      <c r="K15" s="178"/>
+      <c r="L15" s="178"/>
+      <c r="M15" s="178"/>
+      <c r="N15" s="178"/>
     </row>
     <row r="16" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="195"/>
-      <c r="C16" s="179"/>
-      <c r="D16" s="196"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="179"/>
-      <c r="J16" s="179"/>
-      <c r="K16" s="179"/>
-      <c r="L16" s="179"/>
-      <c r="M16" s="179"/>
-      <c r="N16" s="179"/>
+      <c r="A16" s="193"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="178"/>
+      <c r="K16" s="178"/>
+      <c r="L16" s="178"/>
+      <c r="M16" s="178"/>
+      <c r="N16" s="178"/>
     </row>
     <row r="17" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="195"/>
-      <c r="C17" s="179"/>
-      <c r="D17" s="196"/>
-      <c r="E17" s="179"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="179"/>
-      <c r="H17" s="179"/>
-      <c r="I17" s="179"/>
-      <c r="J17" s="179"/>
-      <c r="K17" s="179"/>
-      <c r="L17" s="179"/>
-      <c r="M17" s="179"/>
-      <c r="N17" s="179"/>
+      <c r="A17" s="193"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="194"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="178"/>
+      <c r="J17" s="178"/>
+      <c r="K17" s="178"/>
+      <c r="L17" s="178"/>
+      <c r="M17" s="178"/>
+      <c r="N17" s="178"/>
     </row>
     <row r="18" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="195"/>
-      <c r="C18" s="179"/>
-      <c r="D18" s="196"/>
-      <c r="E18" s="179"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="179"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="179"/>
-      <c r="J18" s="179"/>
-      <c r="K18" s="179"/>
-      <c r="L18" s="179"/>
-      <c r="M18" s="179"/>
-      <c r="N18" s="179"/>
+      <c r="A18" s="193"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="178"/>
+      <c r="K18" s="178"/>
+      <c r="L18" s="178"/>
+      <c r="M18" s="178"/>
+      <c r="N18" s="178"/>
     </row>
     <row r="19" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="195"/>
-      <c r="C19" s="179"/>
-      <c r="D19" s="196"/>
-      <c r="E19" s="179"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="179"/>
-      <c r="H19" s="179"/>
-      <c r="I19" s="179"/>
-      <c r="J19" s="179"/>
-      <c r="K19" s="179"/>
-      <c r="L19" s="179"/>
-      <c r="M19" s="179"/>
-      <c r="N19" s="179"/>
+      <c r="A19" s="193"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="194"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="178"/>
+      <c r="J19" s="178"/>
+      <c r="K19" s="178"/>
+      <c r="L19" s="178"/>
+      <c r="M19" s="178"/>
+      <c r="N19" s="178"/>
     </row>
     <row r="20" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="195"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="196"/>
-      <c r="E20" s="179"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="179"/>
-      <c r="H20" s="179"/>
-      <c r="I20" s="179"/>
-      <c r="J20" s="179"/>
-      <c r="K20" s="179"/>
-      <c r="L20" s="179"/>
-      <c r="M20" s="179"/>
-      <c r="N20" s="179"/>
+      <c r="A20" s="193"/>
+      <c r="C20" s="178"/>
+      <c r="D20" s="194"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="178"/>
+      <c r="J20" s="178"/>
+      <c r="K20" s="178"/>
+      <c r="L20" s="178"/>
+      <c r="M20" s="178"/>
+      <c r="N20" s="178"/>
     </row>
     <row r="21" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="195"/>
-      <c r="C21" s="179"/>
-      <c r="D21" s="196"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="179"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="179"/>
-      <c r="J21" s="179"/>
-      <c r="K21" s="179"/>
-      <c r="L21" s="179"/>
-      <c r="M21" s="179"/>
-      <c r="N21" s="179"/>
+      <c r="A21" s="193"/>
+      <c r="C21" s="178"/>
+      <c r="D21" s="194"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="178"/>
+      <c r="K21" s="178"/>
+      <c r="L21" s="178"/>
+      <c r="M21" s="178"/>
+      <c r="N21" s="178"/>
     </row>
     <row r="22" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="195"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="196"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="179"/>
-      <c r="H22" s="179"/>
-      <c r="I22" s="179"/>
-      <c r="J22" s="179"/>
-      <c r="K22" s="179"/>
-      <c r="L22" s="179"/>
-      <c r="M22" s="179"/>
-      <c r="N22" s="179"/>
+      <c r="A22" s="193"/>
+      <c r="C22" s="178"/>
+      <c r="D22" s="194"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="178"/>
+      <c r="K22" s="178"/>
+      <c r="L22" s="178"/>
+      <c r="M22" s="178"/>
+      <c r="N22" s="178"/>
     </row>
     <row r="23" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="195"/>
-      <c r="C23" s="179"/>
-      <c r="D23" s="196"/>
-      <c r="E23" s="179"/>
-      <c r="F23" s="179"/>
-      <c r="G23" s="179"/>
-      <c r="H23" s="179"/>
-      <c r="I23" s="179"/>
-      <c r="J23" s="179"/>
-      <c r="K23" s="179"/>
-      <c r="L23" s="179"/>
-      <c r="M23" s="179"/>
-      <c r="N23" s="179"/>
+      <c r="A23" s="193"/>
+      <c r="C23" s="178"/>
+      <c r="D23" s="194"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="178"/>
+      <c r="K23" s="178"/>
+      <c r="L23" s="178"/>
+      <c r="M23" s="178"/>
+      <c r="N23" s="178"/>
     </row>
     <row r="24" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="195"/>
-      <c r="C24" s="179"/>
-      <c r="D24" s="196"/>
-      <c r="E24" s="179"/>
-      <c r="F24" s="179"/>
-      <c r="G24" s="179"/>
-      <c r="H24" s="179"/>
-      <c r="I24" s="179"/>
-      <c r="J24" s="179"/>
-      <c r="K24" s="179"/>
-      <c r="L24" s="179"/>
-      <c r="M24" s="179"/>
-      <c r="N24" s="179"/>
+      <c r="A24" s="193"/>
+      <c r="C24" s="178"/>
+      <c r="D24" s="194"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="178"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="178"/>
+      <c r="K24" s="178"/>
+      <c r="L24" s="178"/>
+      <c r="M24" s="178"/>
+      <c r="N24" s="178"/>
     </row>
     <row r="25" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="195"/>
-      <c r="C25" s="179"/>
-      <c r="D25" s="196"/>
-      <c r="E25" s="179"/>
-      <c r="F25" s="179"/>
-      <c r="G25" s="179"/>
-      <c r="H25" s="179"/>
-      <c r="I25" s="179"/>
-      <c r="J25" s="179"/>
-      <c r="K25" s="179"/>
-      <c r="L25" s="179"/>
-      <c r="M25" s="179"/>
-      <c r="N25" s="179"/>
+      <c r="A25" s="193"/>
+      <c r="C25" s="178"/>
+      <c r="D25" s="194"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="178"/>
+      <c r="H25" s="178"/>
+      <c r="I25" s="178"/>
+      <c r="J25" s="178"/>
+      <c r="K25" s="178"/>
+      <c r="L25" s="178"/>
+      <c r="M25" s="178"/>
+      <c r="N25" s="178"/>
     </row>
     <row r="26" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="195"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="196"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="179"/>
-      <c r="H26" s="179"/>
-      <c r="I26" s="179"/>
-      <c r="J26" s="179"/>
-      <c r="K26" s="179"/>
-      <c r="L26" s="179"/>
-      <c r="M26" s="179"/>
-      <c r="N26" s="179"/>
+      <c r="A26" s="193"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="194"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="178"/>
+      <c r="H26" s="178"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="178"/>
+      <c r="K26" s="178"/>
+      <c r="L26" s="178"/>
+      <c r="M26" s="178"/>
+      <c r="N26" s="178"/>
     </row>
     <row r="27" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="195"/>
-      <c r="C27" s="179"/>
-      <c r="D27" s="196"/>
-      <c r="E27" s="179"/>
-      <c r="F27" s="179"/>
-      <c r="G27" s="179"/>
-      <c r="H27" s="179"/>
-      <c r="I27" s="179"/>
-      <c r="J27" s="179"/>
-      <c r="K27" s="179"/>
-      <c r="L27" s="179"/>
-      <c r="M27" s="179"/>
-      <c r="N27" s="179"/>
+      <c r="A27" s="193"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="194"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="178"/>
+      <c r="K27" s="178"/>
+      <c r="L27" s="178"/>
+      <c r="M27" s="178"/>
+      <c r="N27" s="178"/>
     </row>
     <row r="28" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="195"/>
-      <c r="C28" s="179"/>
-      <c r="D28" s="196"/>
-      <c r="E28" s="179"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="179"/>
-      <c r="H28" s="179"/>
-      <c r="I28" s="179"/>
-      <c r="J28" s="179"/>
-      <c r="K28" s="179"/>
-      <c r="L28" s="179"/>
-      <c r="M28" s="179"/>
-      <c r="N28" s="179"/>
+      <c r="A28" s="193"/>
+      <c r="C28" s="178"/>
+      <c r="D28" s="194"/>
+      <c r="E28" s="178"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="178"/>
+      <c r="H28" s="178"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="178"/>
+      <c r="K28" s="178"/>
+      <c r="L28" s="178"/>
+      <c r="M28" s="178"/>
+      <c r="N28" s="178"/>
     </row>
     <row r="29" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="195"/>
-      <c r="C29" s="179"/>
-      <c r="D29" s="196"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="179"/>
-      <c r="H29" s="179"/>
-      <c r="I29" s="179"/>
-      <c r="J29" s="179"/>
-      <c r="K29" s="179"/>
-      <c r="L29" s="179"/>
-      <c r="M29" s="179"/>
-      <c r="N29" s="179"/>
+      <c r="A29" s="193"/>
+      <c r="C29" s="178"/>
+      <c r="D29" s="194"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="178"/>
+      <c r="G29" s="178"/>
+      <c r="H29" s="178"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="178"/>
+      <c r="K29" s="178"/>
+      <c r="L29" s="178"/>
+      <c r="M29" s="178"/>
+      <c r="N29" s="178"/>
     </row>
     <row r="30" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="195"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="196"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="179"/>
-      <c r="H30" s="179"/>
-      <c r="I30" s="179"/>
-      <c r="J30" s="179"/>
-      <c r="K30" s="179"/>
-      <c r="L30" s="179"/>
-      <c r="M30" s="179"/>
-      <c r="N30" s="179"/>
+      <c r="A30" s="193"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="194"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="178"/>
+      <c r="H30" s="178"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="178"/>
+      <c r="K30" s="178"/>
+      <c r="L30" s="178"/>
+      <c r="M30" s="178"/>
+      <c r="N30" s="178"/>
     </row>
     <row r="31" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="195"/>
-      <c r="C31" s="179"/>
-      <c r="D31" s="196"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="179"/>
-      <c r="I31" s="179"/>
-      <c r="J31" s="179"/>
-      <c r="K31" s="179"/>
-      <c r="L31" s="179"/>
-      <c r="M31" s="179"/>
-      <c r="N31" s="179"/>
+      <c r="A31" s="193"/>
+      <c r="C31" s="178"/>
+      <c r="D31" s="194"/>
+      <c r="E31" s="178"/>
+      <c r="F31" s="178"/>
+      <c r="G31" s="178"/>
+      <c r="H31" s="178"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="178"/>
+      <c r="K31" s="178"/>
+      <c r="L31" s="178"/>
+      <c r="M31" s="178"/>
+      <c r="N31" s="178"/>
     </row>
     <row r="32" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="195"/>
-      <c r="C32" s="179"/>
-      <c r="D32" s="196"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="179"/>
-      <c r="H32" s="179"/>
-      <c r="I32" s="179"/>
-      <c r="J32" s="179"/>
-      <c r="K32" s="179"/>
-      <c r="L32" s="179"/>
-      <c r="M32" s="179"/>
-      <c r="N32" s="179"/>
+      <c r="A32" s="193"/>
+      <c r="C32" s="178"/>
+      <c r="D32" s="194"/>
+      <c r="E32" s="178"/>
+      <c r="F32" s="178"/>
+      <c r="G32" s="178"/>
+      <c r="H32" s="178"/>
+      <c r="I32" s="178"/>
+      <c r="J32" s="178"/>
+      <c r="K32" s="178"/>
+      <c r="L32" s="178"/>
+      <c r="M32" s="178"/>
+      <c r="N32" s="178"/>
     </row>
     <row r="33" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="195"/>
-      <c r="C33" s="179"/>
-      <c r="D33" s="196"/>
-      <c r="E33" s="179"/>
-      <c r="F33" s="179"/>
-      <c r="G33" s="179"/>
-      <c r="H33" s="179"/>
-      <c r="I33" s="179"/>
-      <c r="J33" s="179"/>
-      <c r="K33" s="179"/>
-      <c r="L33" s="179"/>
-      <c r="M33" s="179"/>
-      <c r="N33" s="179"/>
+      <c r="A33" s="193"/>
+      <c r="C33" s="178"/>
+      <c r="D33" s="194"/>
+      <c r="E33" s="178"/>
+      <c r="F33" s="178"/>
+      <c r="G33" s="178"/>
+      <c r="H33" s="178"/>
+      <c r="I33" s="178"/>
+      <c r="J33" s="178"/>
+      <c r="K33" s="178"/>
+      <c r="L33" s="178"/>
+      <c r="M33" s="178"/>
+      <c r="N33" s="178"/>
     </row>
     <row r="34" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="195"/>
-      <c r="C34" s="179"/>
-      <c r="D34" s="196"/>
-      <c r="E34" s="179"/>
-      <c r="F34" s="179"/>
-      <c r="G34" s="179"/>
-      <c r="H34" s="179"/>
-      <c r="I34" s="179"/>
-      <c r="J34" s="179"/>
-      <c r="K34" s="179"/>
-      <c r="L34" s="179"/>
-      <c r="M34" s="179"/>
-      <c r="N34" s="179"/>
+      <c r="A34" s="193"/>
+      <c r="C34" s="178"/>
+      <c r="D34" s="194"/>
+      <c r="E34" s="178"/>
+      <c r="F34" s="178"/>
+      <c r="G34" s="178"/>
+      <c r="H34" s="178"/>
+      <c r="I34" s="178"/>
+      <c r="J34" s="178"/>
+      <c r="K34" s="178"/>
+      <c r="L34" s="178"/>
+      <c r="M34" s="178"/>
+      <c r="N34" s="178"/>
     </row>
     <row r="35" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="195"/>
-      <c r="C35" s="179"/>
-      <c r="D35" s="196"/>
-      <c r="E35" s="179"/>
-      <c r="F35" s="179"/>
-      <c r="G35" s="179"/>
-      <c r="H35" s="179"/>
-      <c r="I35" s="179"/>
-      <c r="J35" s="179"/>
-      <c r="K35" s="179"/>
-      <c r="L35" s="179"/>
-      <c r="M35" s="179"/>
-      <c r="N35" s="179"/>
+      <c r="A35" s="193"/>
+      <c r="C35" s="178"/>
+      <c r="D35" s="194"/>
+      <c r="E35" s="178"/>
+      <c r="F35" s="178"/>
+      <c r="G35" s="178"/>
+      <c r="H35" s="178"/>
+      <c r="I35" s="178"/>
+      <c r="J35" s="178"/>
+      <c r="K35" s="178"/>
+      <c r="L35" s="178"/>
+      <c r="M35" s="178"/>
+      <c r="N35" s="178"/>
     </row>
     <row r="36" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="195"/>
-      <c r="C36" s="179"/>
-      <c r="D36" s="196"/>
-      <c r="E36" s="179"/>
-      <c r="F36" s="179"/>
-      <c r="G36" s="179"/>
-      <c r="H36" s="179"/>
-      <c r="I36" s="179"/>
-      <c r="J36" s="179"/>
-      <c r="K36" s="179"/>
-      <c r="L36" s="179"/>
-      <c r="M36" s="179"/>
-      <c r="N36" s="179"/>
+      <c r="A36" s="193"/>
+      <c r="C36" s="178"/>
+      <c r="D36" s="194"/>
+      <c r="E36" s="178"/>
+      <c r="F36" s="178"/>
+      <c r="G36" s="178"/>
+      <c r="H36" s="178"/>
+      <c r="I36" s="178"/>
+      <c r="J36" s="178"/>
+      <c r="K36" s="178"/>
+      <c r="L36" s="178"/>
+      <c r="M36" s="178"/>
+      <c r="N36" s="178"/>
     </row>
     <row r="37" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="195"/>
-      <c r="C37" s="179"/>
-      <c r="D37" s="196"/>
-      <c r="E37" s="179"/>
-      <c r="F37" s="179"/>
-      <c r="G37" s="179"/>
-      <c r="H37" s="179"/>
-      <c r="I37" s="179"/>
-      <c r="J37" s="179"/>
-      <c r="K37" s="179"/>
-      <c r="L37" s="179"/>
-      <c r="M37" s="179"/>
-      <c r="N37" s="179"/>
+      <c r="A37" s="193"/>
+      <c r="C37" s="178"/>
+      <c r="D37" s="194"/>
+      <c r="E37" s="178"/>
+      <c r="F37" s="178"/>
+      <c r="G37" s="178"/>
+      <c r="H37" s="178"/>
+      <c r="I37" s="178"/>
+      <c r="J37" s="178"/>
+      <c r="K37" s="178"/>
+      <c r="L37" s="178"/>
+      <c r="M37" s="178"/>
+      <c r="N37" s="178"/>
     </row>
     <row r="38" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="195"/>
-      <c r="C38" s="179"/>
-      <c r="D38" s="196"/>
-      <c r="E38" s="179"/>
-      <c r="F38" s="179"/>
-      <c r="G38" s="179"/>
-      <c r="H38" s="179"/>
-      <c r="I38" s="179"/>
-      <c r="J38" s="179"/>
-      <c r="K38" s="179"/>
-      <c r="L38" s="179"/>
-      <c r="M38" s="179"/>
-      <c r="N38" s="179"/>
+      <c r="A38" s="193"/>
+      <c r="C38" s="178"/>
+      <c r="D38" s="194"/>
+      <c r="E38" s="178"/>
+      <c r="F38" s="178"/>
+      <c r="G38" s="178"/>
+      <c r="H38" s="178"/>
+      <c r="I38" s="178"/>
+      <c r="J38" s="178"/>
+      <c r="K38" s="178"/>
+      <c r="L38" s="178"/>
+      <c r="M38" s="178"/>
+      <c r="N38" s="178"/>
     </row>
     <row r="39" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="C39" s="179"/>
-      <c r="D39" s="196"/>
-      <c r="E39" s="179"/>
-      <c r="F39" s="179"/>
-      <c r="G39" s="179"/>
-      <c r="H39" s="179"/>
-      <c r="I39" s="179"/>
-      <c r="J39" s="179"/>
-      <c r="K39" s="179"/>
-      <c r="L39" s="179"/>
-      <c r="M39" s="179"/>
-      <c r="N39" s="179"/>
+      <c r="A39" s="193"/>
+      <c r="C39" s="178"/>
+      <c r="D39" s="194"/>
+      <c r="E39" s="178"/>
+      <c r="F39" s="178"/>
+      <c r="G39" s="178"/>
+      <c r="H39" s="178"/>
+      <c r="I39" s="178"/>
+      <c r="J39" s="178"/>
+      <c r="K39" s="178"/>
+      <c r="L39" s="178"/>
+      <c r="M39" s="178"/>
+      <c r="N39" s="178"/>
     </row>
     <row r="40" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="195"/>
-      <c r="C40" s="179"/>
-      <c r="D40" s="196"/>
-      <c r="E40" s="179"/>
-      <c r="F40" s="179"/>
-      <c r="G40" s="179"/>
-      <c r="H40" s="179"/>
-      <c r="I40" s="179"/>
-      <c r="J40" s="179"/>
-      <c r="K40" s="179"/>
-      <c r="L40" s="179"/>
-      <c r="M40" s="179"/>
-      <c r="N40" s="179"/>
+      <c r="A40" s="193"/>
+      <c r="C40" s="178"/>
+      <c r="D40" s="194"/>
+      <c r="E40" s="178"/>
+      <c r="F40" s="178"/>
+      <c r="G40" s="178"/>
+      <c r="H40" s="178"/>
+      <c r="I40" s="178"/>
+      <c r="J40" s="178"/>
+      <c r="K40" s="178"/>
+      <c r="L40" s="178"/>
+      <c r="M40" s="178"/>
+      <c r="N40" s="178"/>
     </row>
     <row r="41" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="195"/>
-      <c r="C41" s="179"/>
-      <c r="D41" s="196"/>
-      <c r="E41" s="179"/>
-      <c r="F41" s="179"/>
-      <c r="G41" s="179"/>
-      <c r="H41" s="179"/>
-      <c r="I41" s="179"/>
-      <c r="J41" s="179"/>
-      <c r="K41" s="179"/>
-      <c r="L41" s="179"/>
-      <c r="M41" s="179"/>
-      <c r="N41" s="179"/>
+      <c r="A41" s="193"/>
+      <c r="C41" s="178"/>
+      <c r="D41" s="194"/>
+      <c r="E41" s="178"/>
+      <c r="F41" s="178"/>
+      <c r="G41" s="178"/>
+      <c r="H41" s="178"/>
+      <c r="I41" s="178"/>
+      <c r="J41" s="178"/>
+      <c r="K41" s="178"/>
+      <c r="L41" s="178"/>
+      <c r="M41" s="178"/>
+      <c r="N41" s="178"/>
     </row>
     <row r="42" spans="1:14" s="157" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="195"/>
+      <c r="A42" s="193"/>
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
-      <c r="E42" s="179"/>
-      <c r="F42" s="179"/>
-      <c r="G42" s="179"/>
-      <c r="H42" s="179"/>
-      <c r="I42" s="179"/>
-      <c r="J42" s="179"/>
-      <c r="K42" s="179"/>
-      <c r="L42" s="179"/>
-      <c r="M42" s="179"/>
-      <c r="N42" s="179"/>
+      <c r="E42" s="178"/>
+      <c r="F42" s="178"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
+      <c r="J42" s="178"/>
+      <c r="K42" s="178"/>
+      <c r="L42" s="178"/>
+      <c r="M42" s="178"/>
+      <c r="N42" s="178"/>
     </row>
     <row r="43" spans="1:14" s="159" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="197"/>
-      <c r="C43" s="197"/>
-      <c r="D43" s="197"/>
+      <c r="B43" s="195"/>
+      <c r="C43" s="195"/>
+      <c r="D43" s="195"/>
       <c r="E43" s="35"/>
       <c r="F43" s="35"/>
       <c r="G43" s="35"/>
@@ -6576,8 +6575,8 @@
       <c r="N43" s="35"/>
     </row>
     <row r="44" spans="1:14" s="159" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="198"/>
-      <c r="D44" s="199">
+      <c r="B44" s="196"/>
+      <c r="D44" s="197">
         <f>SUM(D11:D42)</f>
         <v>0</v>
       </c>
@@ -6591,7 +6590,7 @@
       <c r="M44" s="35"/>
     </row>
     <row r="45" spans="1:14" s="159" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D45" s="199"/>
+      <c r="D45" s="197"/>
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
       <c r="J45" s="35"/>
@@ -6599,81 +6598,81 @@
       <c r="L45" s="35"/>
     </row>
     <row r="46" spans="1:14" s="159" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="278" t="s">
-        <v>216</v>
-      </c>
-      <c r="C46" s="278"/>
-      <c r="D46" s="199" t="e">
+      <c r="B46" s="275" t="s">
+        <v>214</v>
+      </c>
+      <c r="C46" s="275"/>
+      <c r="D46" s="197" t="e">
         <f>'Soupis výdajů'!D44/'Přehled o vybraných poplatcích'!D49</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="47" spans="1:14" s="159" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="278" t="s">
-        <v>217</v>
-      </c>
-      <c r="C47" s="278"/>
-      <c r="D47" s="199" t="e">
+      <c r="B47" s="275" t="s">
+        <v>215</v>
+      </c>
+      <c r="C47" s="275"/>
+      <c r="D47" s="197" t="e">
         <f>ROUND(D46/5,0)*5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G47" s="200"/>
+      <c r="G47" s="198"/>
     </row>
     <row r="48" spans="1:14" s="159" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D48" s="199"/>
-      <c r="G48" s="200"/>
+      <c r="D48" s="197"/>
+      <c r="G48" s="198"/>
     </row>
     <row r="49" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D49" s="199"/>
-      <c r="G49" s="200"/>
+      <c r="D49" s="197"/>
+      <c r="G49" s="198"/>
     </row>
     <row r="50" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C50" s="159" t="s">
-        <v>218</v>
-      </c>
-      <c r="D50" s="199">
+        <v>216</v>
+      </c>
+      <c r="D50" s="197">
         <f>'Přehled o vybraných poplatcích'!E49</f>
         <v>0</v>
       </c>
-      <c r="G50" s="200"/>
+      <c r="G50" s="198"/>
     </row>
     <row r="51" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C51" s="159" t="s">
+        <v>217</v>
+      </c>
+      <c r="D51" s="197">
+        <f>D44-D50</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="198"/>
+    </row>
+    <row r="52" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="195"/>
+      <c r="D52" s="199"/>
+      <c r="G52" s="198"/>
+    </row>
+    <row r="53" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="200" t="s">
+        <v>218</v>
+      </c>
+      <c r="D53" s="201">
+        <f>SUM(D50:D51)</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="159" t="s">
+        <v>213</v>
+      </c>
+      <c r="G53" s="198"/>
+    </row>
+    <row r="54" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="200" t="s">
         <v>219</v>
       </c>
-      <c r="D51" s="199">
-        <f>D44-D50</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="200"/>
-    </row>
-    <row r="52" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="197"/>
-      <c r="D52" s="201"/>
-      <c r="G52" s="200"/>
-    </row>
-    <row r="53" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="202" t="s">
-        <v>220</v>
-      </c>
-      <c r="D53" s="203">
-        <f>SUM(D50:D51)</f>
-        <v>0</v>
-      </c>
-      <c r="E53" s="159" t="s">
-        <v>215</v>
-      </c>
-      <c r="G53" s="200"/>
-    </row>
-    <row r="54" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="202" t="s">
-        <v>221</v>
-      </c>
-      <c r="D54" s="203">
+      <c r="D54" s="201">
         <f>D44</f>
         <v>0</v>
       </c>
-      <c r="G54" s="200"/>
+      <c r="G54" s="198"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57"/>
@@ -6718,7 +6717,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63"/>
-      <c r="B63" s="204"/>
+      <c r="B63" s="202"/>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63"/>
@@ -6744,9 +6743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6754,13 +6751,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="205" t="str">
+      <c r="A1" s="203" t="str">
         <f>'Seznam účastníků'!A1</f>
         <v>Kondor - Skupina ŠÁN - Podolské nábřeží 5, Praha 4 - Podolí, 147 00</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="206" t="str">
+      <c r="A2" s="204" t="str">
         <f>'Seznam účastníků'!A2</f>
         <v>Neočekávaný dýchánek</v>
       </c>
@@ -6769,120 +6766,120 @@
       <c r="A4" s="156" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="276" t="str">
+      <c r="B4" s="273">
         <f>'Seznam účastníků'!B4</f>
-        <v>Dno pytle</v>
-      </c>
-      <c r="C4" s="276"/>
+        <v>0</v>
+      </c>
+      <c r="C4" s="273"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="156" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="277">
+        <v>194</v>
+      </c>
+      <c r="B5" s="274">
         <f>'Seznam účastníků'!B5</f>
-        <v>40177</v>
-      </c>
-      <c r="C5" s="277"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="274"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="156" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" s="277">
+        <v>195</v>
+      </c>
+      <c r="B6" s="274">
         <f>'Seznam účastníků'!B6</f>
-        <v>40180</v>
-      </c>
-      <c r="C6" s="277"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="274"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="156" t="s">
-        <v>197</v>
-      </c>
-      <c r="B7" s="276" t="str">
+        <v>196</v>
+      </c>
+      <c r="B7" s="273">
         <f>'Seznam účastníků'!B7</f>
-        <v>Gandalf Šedý</v>
-      </c>
-      <c r="C7" s="276"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="273"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="207"/>
+      <c r="A8" s="205"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="280" t="s">
+      <c r="A9" s="277" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="277"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="206"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="207"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="277" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19" s="277"/>
+      <c r="C19" s="277"/>
+      <c r="D19" s="277"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="206" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="280"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="208"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="209"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="280" t="s">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="206"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="277" t="s">
         <v>223</v>
       </c>
-      <c r="B19" s="280"/>
-      <c r="C19" s="280"/>
-      <c r="D19" s="280"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="208" t="s">
+      <c r="B22" s="277"/>
+      <c r="C22" s="277"/>
+      <c r="D22" s="277"/>
+      <c r="E22" s="277"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="206" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="206"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="277" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="208"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="280" t="s">
+      <c r="B25" s="277"/>
+      <c r="C25" s="277"/>
+      <c r="D25" s="277"/>
+      <c r="E25" s="277"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="206" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="206"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="277" t="s">
         <v>225</v>
       </c>
-      <c r="B22" s="280"/>
-      <c r="C22" s="280"/>
-      <c r="D22" s="280"/>
-      <c r="E22" s="280"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="208" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="208"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="280" t="s">
-        <v>226</v>
-      </c>
-      <c r="B25" s="280"/>
-      <c r="C25" s="280"/>
-      <c r="D25" s="280"/>
-      <c r="E25" s="280"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="208" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="208"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="280" t="s">
-        <v>227</v>
-      </c>
-      <c r="B28" s="280"/>
-      <c r="C28" s="280"/>
-      <c r="D28" s="280"/>
-      <c r="E28" s="280"/>
-      <c r="F28" s="280"/>
+      <c r="B28" s="277"/>
+      <c r="C28" s="277"/>
+      <c r="D28" s="277"/>
+      <c r="E28" s="277"/>
+      <c r="F28" s="277"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -6927,28 +6924,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="219" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
+      <c r="A1" s="217" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="220" t="str">
+      <c r="A2" s="218" t="str">
         <f>'Formulář  AKCE'!B2</f>
         <v>smlouvy č. DAG/61/03/001435/2009 o poskytnutí finančních prostředků
 Příloha k vyúčtování akcí a táborů</v>
       </c>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
@@ -6957,7 +6954,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="281" t="str">
+      <c r="G3" s="278" t="str">
         <f>IF(ISNUMBER('Formulář  AKCE'!G3),'Formulář  AKCE'!G3," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -6969,7 +6966,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="281"/>
+      <c r="G4" s="278"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
@@ -6978,7 +6975,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="281"/>
+      <c r="G5" s="278"/>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
@@ -7009,7 +7006,7 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="210" t="str">
+      <c r="E9" s="208" t="str">
         <f>IF(ISBLANK(Seznam_do_35_účastníků!C2),IF(ISBLANK(Seznam_do_70_účastníků!C2)," ",Seznam_do_70_účastníků!C2),Seznam_do_35_účastníků!C2)</f>
         <v>Šán</v>
       </c>
@@ -7021,244 +7018,244 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="211"/>
+      <c r="E10" s="209"/>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>3</v>
       </c>
-      <c r="B11" s="282" t="s">
-        <v>229</v>
-      </c>
-      <c r="C11" s="282"/>
-      <c r="D11" s="282"/>
-      <c r="E11" s="282"/>
-      <c r="F11" s="282"/>
-      <c r="G11" s="282"/>
+      <c r="B11" s="279" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="279"/>
+      <c r="D11" s="279"/>
+      <c r="E11" s="279"/>
+      <c r="F11" s="279"/>
+      <c r="G11" s="279"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
-      <c r="B12" s="282"/>
-      <c r="C12" s="282"/>
-      <c r="D12" s="282"/>
-      <c r="E12" s="282"/>
-      <c r="F12" s="282"/>
-      <c r="G12" s="282"/>
+      <c r="B12" s="279"/>
+      <c r="C12" s="279"/>
+      <c r="D12" s="279"/>
+      <c r="E12" s="279"/>
+      <c r="F12" s="279"/>
+      <c r="G12" s="279"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="282"/>
-      <c r="C13" s="282"/>
-      <c r="D13" s="282"/>
-      <c r="E13" s="282"/>
-      <c r="F13" s="282"/>
-      <c r="G13" s="282"/>
+      <c r="B13" s="279"/>
+      <c r="C13" s="279"/>
+      <c r="D13" s="279"/>
+      <c r="E13" s="279"/>
+      <c r="F13" s="279"/>
+      <c r="G13" s="279"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="282"/>
-      <c r="C14" s="282"/>
-      <c r="D14" s="282"/>
-      <c r="E14" s="282"/>
-      <c r="F14" s="282"/>
-      <c r="G14" s="282"/>
+      <c r="B14" s="279"/>
+      <c r="C14" s="279"/>
+      <c r="D14" s="279"/>
+      <c r="E14" s="279"/>
+      <c r="F14" s="279"/>
+      <c r="G14" s="279"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="282"/>
-      <c r="C15" s="282"/>
-      <c r="D15" s="282"/>
-      <c r="E15" s="282"/>
-      <c r="F15" s="282"/>
-      <c r="G15" s="282"/>
+      <c r="B15" s="279"/>
+      <c r="C15" s="279"/>
+      <c r="D15" s="279"/>
+      <c r="E15" s="279"/>
+      <c r="F15" s="279"/>
+      <c r="G15" s="279"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="282"/>
-      <c r="C16" s="282"/>
-      <c r="D16" s="282"/>
-      <c r="E16" s="282"/>
-      <c r="F16" s="282"/>
-      <c r="G16" s="282"/>
+      <c r="B16" s="279"/>
+      <c r="C16" s="279"/>
+      <c r="D16" s="279"/>
+      <c r="E16" s="279"/>
+      <c r="F16" s="279"/>
+      <c r="G16" s="279"/>
     </row>
     <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="282"/>
-      <c r="C17" s="282"/>
-      <c r="D17" s="282"/>
-      <c r="E17" s="282"/>
-      <c r="F17" s="282"/>
-      <c r="G17" s="282"/>
+      <c r="B17" s="279"/>
+      <c r="C17" s="279"/>
+      <c r="D17" s="279"/>
+      <c r="E17" s="279"/>
+      <c r="F17" s="279"/>
+      <c r="G17" s="279"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="282"/>
-      <c r="C18" s="282"/>
-      <c r="D18" s="282"/>
-      <c r="E18" s="282"/>
-      <c r="F18" s="282"/>
-      <c r="G18" s="282"/>
+      <c r="B18" s="279"/>
+      <c r="C18" s="279"/>
+      <c r="D18" s="279"/>
+      <c r="E18" s="279"/>
+      <c r="F18" s="279"/>
+      <c r="G18" s="279"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="282"/>
-      <c r="C19" s="282"/>
-      <c r="D19" s="282"/>
-      <c r="E19" s="282"/>
-      <c r="F19" s="282"/>
-      <c r="G19" s="282"/>
+      <c r="B19" s="279"/>
+      <c r="C19" s="279"/>
+      <c r="D19" s="279"/>
+      <c r="E19" s="279"/>
+      <c r="F19" s="279"/>
+      <c r="G19" s="279"/>
       <c r="I19" s="35"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="282"/>
-      <c r="C20" s="282"/>
-      <c r="D20" s="282"/>
-      <c r="E20" s="282"/>
-      <c r="F20" s="282"/>
-      <c r="G20" s="282"/>
+      <c r="B20" s="279"/>
+      <c r="C20" s="279"/>
+      <c r="D20" s="279"/>
+      <c r="E20" s="279"/>
+      <c r="F20" s="279"/>
+      <c r="G20" s="279"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="282"/>
-      <c r="C21" s="282"/>
-      <c r="D21" s="282"/>
-      <c r="E21" s="282"/>
-      <c r="F21" s="282"/>
-      <c r="G21" s="282"/>
+      <c r="B21" s="279"/>
+      <c r="C21" s="279"/>
+      <c r="D21" s="279"/>
+      <c r="E21" s="279"/>
+      <c r="F21" s="279"/>
+      <c r="G21" s="279"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="282"/>
-      <c r="C22" s="282"/>
-      <c r="D22" s="282"/>
-      <c r="E22" s="282"/>
-      <c r="F22" s="282"/>
-      <c r="G22" s="282"/>
+      <c r="B22" s="279"/>
+      <c r="C22" s="279"/>
+      <c r="D22" s="279"/>
+      <c r="E22" s="279"/>
+      <c r="F22" s="279"/>
+      <c r="G22" s="279"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="282"/>
-      <c r="C23" s="282"/>
-      <c r="D23" s="282"/>
-      <c r="E23" s="282"/>
-      <c r="F23" s="282"/>
-      <c r="G23" s="282"/>
+      <c r="B23" s="279"/>
+      <c r="C23" s="279"/>
+      <c r="D23" s="279"/>
+      <c r="E23" s="279"/>
+      <c r="F23" s="279"/>
+      <c r="G23" s="279"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="282"/>
-      <c r="C24" s="282"/>
-      <c r="D24" s="282"/>
-      <c r="E24" s="282"/>
-      <c r="F24" s="282"/>
-      <c r="G24" s="282"/>
+      <c r="B24" s="279"/>
+      <c r="C24" s="279"/>
+      <c r="D24" s="279"/>
+      <c r="E24" s="279"/>
+      <c r="F24" s="279"/>
+      <c r="G24" s="279"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="282"/>
-      <c r="C25" s="282"/>
-      <c r="D25" s="282"/>
-      <c r="E25" s="282"/>
-      <c r="F25" s="282"/>
-      <c r="G25" s="282"/>
+      <c r="B25" s="279"/>
+      <c r="C25" s="279"/>
+      <c r="D25" s="279"/>
+      <c r="E25" s="279"/>
+      <c r="F25" s="279"/>
+      <c r="G25" s="279"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="282"/>
-      <c r="C26" s="282"/>
-      <c r="D26" s="282"/>
-      <c r="E26" s="282"/>
-      <c r="F26" s="282"/>
-      <c r="G26" s="282"/>
+      <c r="B26" s="279"/>
+      <c r="C26" s="279"/>
+      <c r="D26" s="279"/>
+      <c r="E26" s="279"/>
+      <c r="F26" s="279"/>
+      <c r="G26" s="279"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="282"/>
-      <c r="C27" s="282"/>
-      <c r="D27" s="282"/>
-      <c r="E27" s="282"/>
-      <c r="F27" s="282"/>
-      <c r="G27" s="282"/>
+      <c r="B27" s="279"/>
+      <c r="C27" s="279"/>
+      <c r="D27" s="279"/>
+      <c r="E27" s="279"/>
+      <c r="F27" s="279"/>
+      <c r="G27" s="279"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="282"/>
-      <c r="C28" s="282"/>
-      <c r="D28" s="282"/>
-      <c r="E28" s="282"/>
-      <c r="F28" s="282"/>
-      <c r="G28" s="282"/>
+      <c r="B28" s="279"/>
+      <c r="C28" s="279"/>
+      <c r="D28" s="279"/>
+      <c r="E28" s="279"/>
+      <c r="F28" s="279"/>
+      <c r="G28" s="279"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="282"/>
-      <c r="C29" s="282"/>
-      <c r="D29" s="282"/>
-      <c r="E29" s="282"/>
-      <c r="F29" s="282"/>
-      <c r="G29" s="282"/>
+      <c r="B29" s="279"/>
+      <c r="C29" s="279"/>
+      <c r="D29" s="279"/>
+      <c r="E29" s="279"/>
+      <c r="F29" s="279"/>
+      <c r="G29" s="279"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="282"/>
-      <c r="C30" s="282"/>
-      <c r="D30" s="282"/>
-      <c r="E30" s="282"/>
-      <c r="F30" s="282"/>
-      <c r="G30" s="282"/>
+      <c r="B30" s="279"/>
+      <c r="C30" s="279"/>
+      <c r="D30" s="279"/>
+      <c r="E30" s="279"/>
+      <c r="F30" s="279"/>
+      <c r="G30" s="279"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="282"/>
-      <c r="C31" s="282"/>
-      <c r="D31" s="282"/>
-      <c r="E31" s="282"/>
-      <c r="F31" s="282"/>
-      <c r="G31" s="282"/>
+      <c r="B31" s="279"/>
+      <c r="C31" s="279"/>
+      <c r="D31" s="279"/>
+      <c r="E31" s="279"/>
+      <c r="F31" s="279"/>
+      <c r="G31" s="279"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="282"/>
-      <c r="C32" s="282"/>
-      <c r="D32" s="282"/>
-      <c r="E32" s="282"/>
-      <c r="F32" s="282"/>
-      <c r="G32" s="282"/>
+      <c r="B32" s="279"/>
+      <c r="C32" s="279"/>
+      <c r="D32" s="279"/>
+      <c r="E32" s="279"/>
+      <c r="F32" s="279"/>
+      <c r="G32" s="279"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="282"/>
-      <c r="C33" s="282"/>
-      <c r="D33" s="282"/>
-      <c r="E33" s="282"/>
-      <c r="F33" s="282"/>
-      <c r="G33" s="282"/>
+      <c r="B33" s="279"/>
+      <c r="C33" s="279"/>
+      <c r="D33" s="279"/>
+      <c r="E33" s="279"/>
+      <c r="F33" s="279"/>
+      <c r="G33" s="279"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="282"/>
-      <c r="C34" s="282"/>
-      <c r="D34" s="282"/>
-      <c r="E34" s="282"/>
-      <c r="F34" s="282"/>
-      <c r="G34" s="282"/>
+      <c r="B34" s="279"/>
+      <c r="C34" s="279"/>
+      <c r="D34" s="279"/>
+      <c r="E34" s="279"/>
+      <c r="F34" s="279"/>
+      <c r="G34" s="279"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="282"/>
-      <c r="C35" s="282"/>
-      <c r="D35" s="282"/>
-      <c r="E35" s="282"/>
-      <c r="F35" s="282"/>
-      <c r="G35" s="282"/>
+      <c r="B35" s="279"/>
+      <c r="C35" s="279"/>
+      <c r="D35" s="279"/>
+      <c r="E35" s="279"/>
+      <c r="F35" s="279"/>
+      <c r="G35" s="279"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="282"/>
-      <c r="C36" s="282"/>
-      <c r="D36" s="282"/>
-      <c r="E36" s="282"/>
-      <c r="F36" s="282"/>
-      <c r="G36" s="282"/>
+      <c r="B36" s="279"/>
+      <c r="C36" s="279"/>
+      <c r="D36" s="279"/>
+      <c r="E36" s="279"/>
+      <c r="F36" s="279"/>
+      <c r="G36" s="279"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="282"/>
-      <c r="C37" s="282"/>
-      <c r="D37" s="282"/>
-      <c r="E37" s="282"/>
-      <c r="F37" s="282"/>
-      <c r="G37" s="282"/>
+      <c r="B37" s="279"/>
+      <c r="C37" s="279"/>
+      <c r="D37" s="279"/>
+      <c r="E37" s="279"/>
+      <c r="F37" s="279"/>
+      <c r="G37" s="279"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="282"/>
-      <c r="C38" s="282"/>
-      <c r="D38" s="282"/>
-      <c r="E38" s="282"/>
-      <c r="F38" s="282"/>
-      <c r="G38" s="282"/>
+      <c r="B38" s="279"/>
+      <c r="C38" s="279"/>
+      <c r="D38" s="279"/>
+      <c r="E38" s="279"/>
+      <c r="F38" s="279"/>
+      <c r="G38" s="279"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="30" t="str">
         <f ca="1">IF(LEN($E$9)&gt;1,"Datum: "&amp;IF(ISNUMBER(VALUE(TEXT(TODAY(),"rrrr"))),TEXT(TODAY(),"dd.mm.rrrr"),TEXT(TODAY(),"dd.mm.yyyy")),"Datum: ........................................")</f>
-        <v>Datum: 23.12.2018</v>
+        <v>Datum: 10.01.2019</v>
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="30"/>
@@ -7326,7 +7323,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="184" t="str">
+      <c r="A2" s="182" t="str">
         <f>'Seznam účastníků'!A2</f>
         <v>Neočekávaný dýchánek</v>
       </c>
@@ -7335,92 +7332,90 @@
       <c r="A4" s="156" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="276" t="str">
+      <c r="B4" s="273">
         <f>'Seznam účastníků'!B4</f>
-        <v>Dno pytle</v>
-      </c>
-      <c r="C4" s="276"/>
+        <v>0</v>
+      </c>
+      <c r="C4" s="273"/>
       <c r="D4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="156" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="277">
+        <v>194</v>
+      </c>
+      <c r="B5" s="274">
         <f>'Seznam účastníků'!B5</f>
-        <v>40177</v>
-      </c>
-      <c r="C5" s="277"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="274"/>
       <c r="D5"/>
-      <c r="E5" s="212"/>
+      <c r="E5" s="210"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="156" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" s="277">
+        <v>195</v>
+      </c>
+      <c r="B6" s="274">
         <f>'Seznam účastníků'!B6</f>
-        <v>40180</v>
-      </c>
-      <c r="C6" s="277"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="274"/>
       <c r="D6"/>
-      <c r="E6" s="212"/>
+      <c r="E6" s="210"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="156" t="s">
-        <v>197</v>
-      </c>
-      <c r="B7" s="276" t="str">
+        <v>196</v>
+      </c>
+      <c r="B7" s="273">
         <f>'Seznam účastníků'!B7</f>
-        <v>Gandalf Šedý</v>
-      </c>
-      <c r="C7" s="276"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="273"/>
       <c r="D7"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="213" t="s">
+      <c r="A9" s="211" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="212" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="212" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="212" t="s">
+        <v>229</v>
+      </c>
+      <c r="E9" s="212" t="s">
         <v>230</v>
       </c>
-      <c r="B9" s="214" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="214" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="214" t="s">
+      <c r="F9" s="212" t="s">
         <v>231</v>
       </c>
-      <c r="E9" s="214" t="s">
+      <c r="G9" s="212" t="s">
         <v>232</v>
       </c>
-      <c r="F9" s="214" t="s">
-        <v>233</v>
-      </c>
-      <c r="G9" s="214" t="s">
-        <v>234</v>
-      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="215" t="str">
+      <c r="B10" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B12</f>
         <v/>
       </c>
-      <c r="C10" s="215" t="str">
+      <c r="C10" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C12</f>
         <v/>
       </c>
-      <c r="D10" s="216">
-        <v>300</v>
-      </c>
-      <c r="E10" s="216" t="str">
+      <c r="D10" s="214"/>
+      <c r="E10" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E12</f>
         <v/>
       </c>
-      <c r="F10" s="216" t="str">
+      <c r="F10" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B19)),D10-E10,"")</f>
         <v/>
       </c>
-      <c r="G10" s="217"/>
+      <c r="G10" s="215"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -7434,26 +7429,24 @@
       <c r="S10"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="215" t="str">
+      <c r="B11" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B13</f>
         <v/>
       </c>
-      <c r="C11" s="215" t="str">
+      <c r="C11" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C13</f>
         <v/>
       </c>
-      <c r="D11" s="216">
-        <v>300</v>
-      </c>
-      <c r="E11" s="216" t="str">
+      <c r="D11" s="214"/>
+      <c r="E11" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E13</f>
         <v/>
       </c>
-      <c r="F11" s="216" t="str">
+      <c r="F11" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B20)),D11-E11,"")</f>
         <v/>
       </c>
-      <c r="G11" s="217"/>
+      <c r="G11" s="215"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -7467,26 +7460,24 @@
       <c r="S11"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="215" t="str">
+      <c r="B12" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B14</f>
         <v/>
       </c>
-      <c r="C12" s="215" t="str">
+      <c r="C12" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C14</f>
         <v/>
       </c>
-      <c r="D12" s="216">
-        <v>300</v>
-      </c>
-      <c r="E12" s="216" t="str">
+      <c r="D12" s="214"/>
+      <c r="E12" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E14</f>
         <v/>
       </c>
-      <c r="F12" s="216" t="str">
+      <c r="F12" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B21)),D12-E12,"")</f>
         <v/>
       </c>
-      <c r="G12" s="217"/>
+      <c r="G12" s="215"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -7500,26 +7491,24 @@
       <c r="S12"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="215" t="str">
+      <c r="B13" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B15</f>
         <v/>
       </c>
-      <c r="C13" s="215" t="str">
+      <c r="C13" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C15</f>
         <v/>
       </c>
-      <c r="D13" s="216">
-        <v>300</v>
-      </c>
-      <c r="E13" s="216" t="str">
+      <c r="D13" s="214"/>
+      <c r="E13" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E15</f>
         <v/>
       </c>
-      <c r="F13" s="216" t="str">
+      <c r="F13" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B22)),D13-E13,"")</f>
         <v/>
       </c>
-      <c r="G13" s="217"/>
+      <c r="G13" s="215"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -7533,27 +7522,25 @@
       <c r="S13"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B14" s="215" t="str">
+      <c r="B14" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B16</f>
         <v/>
       </c>
-      <c r="C14" s="215" t="str">
+      <c r="C14" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C16</f>
         <v/>
       </c>
-      <c r="D14" s="216">
-        <v>300</v>
-      </c>
-      <c r="E14" s="216" t="str">
+      <c r="D14" s="214"/>
+      <c r="E14" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E16</f>
         <v/>
       </c>
-      <c r="F14" s="216" t="str">
+      <c r="F14" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B23)),D14-E14,"")</f>
         <v/>
       </c>
-      <c r="G14" s="217"/>
-      <c r="H14" s="187"/>
+      <c r="G14" s="215"/>
+      <c r="H14" s="185"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -7567,26 +7554,24 @@
       <c r="S14"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="215" t="str">
+      <c r="B15" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B17</f>
         <v/>
       </c>
-      <c r="C15" s="215" t="str">
+      <c r="C15" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C17</f>
         <v/>
       </c>
-      <c r="D15" s="216">
-        <v>300</v>
-      </c>
-      <c r="E15" s="216" t="str">
+      <c r="D15" s="214"/>
+      <c r="E15" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E17</f>
         <v/>
       </c>
-      <c r="F15" s="216" t="str">
+      <c r="F15" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B24)),D15-E15,"")</f>
         <v/>
       </c>
-      <c r="G15" s="217"/>
+      <c r="G15" s="215"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -7600,26 +7585,24 @@
       <c r="S15"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="215" t="str">
+      <c r="B16" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B18</f>
         <v/>
       </c>
-      <c r="C16" s="215" t="str">
+      <c r="C16" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C18</f>
         <v/>
       </c>
-      <c r="D16" s="216">
-        <v>300</v>
-      </c>
-      <c r="E16" s="216" t="str">
+      <c r="D16" s="214"/>
+      <c r="E16" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E18</f>
         <v/>
       </c>
-      <c r="F16" s="216" t="str">
+      <c r="F16" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B25)),D16-E16,"")</f>
         <v/>
       </c>
-      <c r="G16" s="217"/>
+      <c r="G16" s="215"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -7633,26 +7616,24 @@
       <c r="S16"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B17" s="215" t="str">
+      <c r="B17" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B19</f>
         <v/>
       </c>
-      <c r="C17" s="215" t="str">
+      <c r="C17" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C19</f>
         <v/>
       </c>
-      <c r="D17" s="216">
-        <v>300</v>
-      </c>
-      <c r="E17" s="216" t="str">
+      <c r="D17" s="214"/>
+      <c r="E17" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E19</f>
         <v/>
       </c>
-      <c r="F17" s="216" t="str">
+      <c r="F17" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B26)),D17-E17,"")</f>
         <v/>
       </c>
-      <c r="G17" s="217"/>
+      <c r="G17" s="215"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -7666,27 +7647,25 @@
       <c r="S17"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B18" s="215" t="str">
+      <c r="B18" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B20</f>
         <v/>
       </c>
-      <c r="C18" s="215" t="str">
+      <c r="C18" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C20</f>
         <v/>
       </c>
-      <c r="D18" s="216">
-        <v>300</v>
-      </c>
-      <c r="E18" s="216" t="str">
+      <c r="D18" s="214"/>
+      <c r="E18" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E20</f>
         <v/>
       </c>
-      <c r="F18" s="216" t="str">
+      <c r="F18" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B27)),D18-E18,"")</f>
         <v/>
       </c>
-      <c r="G18" s="217"/>
-      <c r="H18" s="187"/>
+      <c r="G18" s="215"/>
+      <c r="H18" s="185"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -7700,26 +7679,24 @@
       <c r="S18"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B19" s="215" t="str">
+      <c r="B19" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B21</f>
         <v/>
       </c>
-      <c r="C19" s="215" t="str">
+      <c r="C19" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C21</f>
         <v/>
       </c>
-      <c r="D19" s="216">
-        <v>300</v>
-      </c>
-      <c r="E19" s="216" t="str">
+      <c r="D19" s="214"/>
+      <c r="E19" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E21</f>
         <v/>
       </c>
-      <c r="F19" s="216" t="str">
+      <c r="F19" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B28)),D19-E19,"")</f>
         <v/>
       </c>
-      <c r="G19" s="217"/>
+      <c r="G19" s="215"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -7733,26 +7710,24 @@
       <c r="S19"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B20" s="215" t="str">
+      <c r="B20" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B22</f>
         <v/>
       </c>
-      <c r="C20" s="215" t="str">
+      <c r="C20" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C22</f>
         <v/>
       </c>
-      <c r="D20" s="216">
-        <v>300</v>
-      </c>
-      <c r="E20" s="216" t="str">
+      <c r="D20" s="214"/>
+      <c r="E20" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E22</f>
         <v/>
       </c>
-      <c r="F20" s="216" t="str">
+      <c r="F20" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B29)),D20-E20,"")</f>
         <v/>
       </c>
-      <c r="G20" s="217"/>
+      <c r="G20" s="215"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -7766,26 +7741,24 @@
       <c r="S20"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B21" s="215" t="str">
+      <c r="B21" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B23</f>
         <v/>
       </c>
-      <c r="C21" s="215" t="str">
+      <c r="C21" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C23</f>
         <v/>
       </c>
-      <c r="D21" s="216">
-        <v>300</v>
-      </c>
-      <c r="E21" s="216" t="str">
+      <c r="D21" s="214"/>
+      <c r="E21" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E23</f>
         <v/>
       </c>
-      <c r="F21" s="216" t="str">
+      <c r="F21" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B30)),D21-E21,"")</f>
         <v/>
       </c>
-      <c r="G21" s="217"/>
+      <c r="G21" s="215"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -7799,26 +7772,24 @@
       <c r="S21"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B22" s="215" t="str">
+      <c r="B22" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B24</f>
         <v/>
       </c>
-      <c r="C22" s="215" t="str">
+      <c r="C22" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C24</f>
         <v/>
       </c>
-      <c r="D22" s="216">
-        <v>300</v>
-      </c>
-      <c r="E22" s="216" t="str">
+      <c r="D22" s="214"/>
+      <c r="E22" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E24</f>
         <v/>
       </c>
-      <c r="F22" s="216" t="str">
+      <c r="F22" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B31)),D22-E22,"")</f>
         <v/>
       </c>
-      <c r="G22" s="217"/>
+      <c r="G22" s="215"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -7832,26 +7803,24 @@
       <c r="S22"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B23" s="215" t="str">
+      <c r="B23" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B25</f>
         <v/>
       </c>
-      <c r="C23" s="215" t="str">
+      <c r="C23" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C25</f>
         <v/>
       </c>
-      <c r="D23" s="216">
-        <v>0</v>
-      </c>
-      <c r="E23" s="216" t="str">
+      <c r="D23" s="214"/>
+      <c r="E23" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E25</f>
         <v/>
       </c>
-      <c r="F23" s="216" t="str">
+      <c r="F23" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B32)),D23-E23,"")</f>
         <v/>
       </c>
-      <c r="G23" s="217"/>
+      <c r="G23" s="215"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -7865,26 +7834,24 @@
       <c r="S23"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B24" s="215" t="str">
+      <c r="B24" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B26</f>
         <v/>
       </c>
-      <c r="C24" s="215" t="str">
+      <c r="C24" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C26</f>
         <v/>
       </c>
-      <c r="D24" s="216">
-        <v>0</v>
-      </c>
-      <c r="E24" s="216" t="str">
+      <c r="D24" s="214"/>
+      <c r="E24" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E26</f>
         <v/>
       </c>
-      <c r="F24" s="216" t="str">
+      <c r="F24" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B33)),D24-E24,"")</f>
         <v/>
       </c>
-      <c r="G24" s="217"/>
+      <c r="G24" s="215"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -7898,24 +7865,24 @@
       <c r="S24"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B25" s="215" t="str">
+      <c r="B25" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B27</f>
         <v/>
       </c>
-      <c r="C25" s="215" t="str">
+      <c r="C25" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C27</f>
         <v/>
       </c>
-      <c r="D25" s="216"/>
-      <c r="E25" s="216" t="str">
+      <c r="D25" s="214"/>
+      <c r="E25" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E27</f>
         <v/>
       </c>
-      <c r="F25" s="216" t="str">
+      <c r="F25" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B34)),D25-E25,"")</f>
         <v/>
       </c>
-      <c r="G25" s="217"/>
+      <c r="G25" s="215"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -7929,24 +7896,24 @@
       <c r="S25"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B26" s="215" t="str">
+      <c r="B26" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B28</f>
         <v/>
       </c>
-      <c r="C26" s="215" t="str">
+      <c r="C26" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C28</f>
         <v/>
       </c>
-      <c r="D26" s="216"/>
-      <c r="E26" s="216" t="str">
+      <c r="D26" s="214"/>
+      <c r="E26" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E28</f>
         <v/>
       </c>
-      <c r="F26" s="216" t="str">
+      <c r="F26" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B35)),D26-E26,"")</f>
         <v/>
       </c>
-      <c r="G26" s="217"/>
+      <c r="G26" s="215"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -7960,24 +7927,24 @@
       <c r="S26"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B27" s="215" t="str">
+      <c r="B27" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B29</f>
         <v/>
       </c>
-      <c r="C27" s="215" t="str">
+      <c r="C27" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C29</f>
         <v/>
       </c>
-      <c r="D27" s="216"/>
-      <c r="E27" s="216" t="str">
+      <c r="D27" s="214"/>
+      <c r="E27" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E29</f>
         <v/>
       </c>
-      <c r="F27" s="216" t="str">
+      <c r="F27" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B36)),D27-E27,"")</f>
         <v/>
       </c>
-      <c r="G27" s="217"/>
+      <c r="G27" s="215"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -7991,24 +7958,24 @@
       <c r="S27"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B28" s="215" t="str">
+      <c r="B28" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B30</f>
         <v/>
       </c>
-      <c r="C28" s="215" t="str">
+      <c r="C28" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C30</f>
         <v/>
       </c>
-      <c r="D28" s="216"/>
-      <c r="E28" s="216" t="str">
+      <c r="D28" s="214"/>
+      <c r="E28" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E30</f>
         <v/>
       </c>
-      <c r="F28" s="216" t="str">
+      <c r="F28" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B37)),D28-E28,"")</f>
         <v/>
       </c>
-      <c r="G28" s="217"/>
+      <c r="G28" s="215"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -8022,24 +7989,24 @@
       <c r="S28"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B29" s="215" t="str">
+      <c r="B29" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B31</f>
         <v/>
       </c>
-      <c r="C29" s="215" t="str">
+      <c r="C29" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C31</f>
         <v/>
       </c>
-      <c r="D29" s="216"/>
-      <c r="E29" s="216" t="str">
+      <c r="D29" s="214"/>
+      <c r="E29" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E31</f>
         <v/>
       </c>
-      <c r="F29" s="216" t="str">
+      <c r="F29" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B38)),D29-E29,"")</f>
         <v/>
       </c>
-      <c r="G29" s="217"/>
+      <c r="G29" s="215"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -8053,24 +8020,24 @@
       <c r="S29"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B30" s="215" t="str">
+      <c r="B30" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B32</f>
         <v/>
       </c>
-      <c r="C30" s="215" t="str">
+      <c r="C30" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C32</f>
         <v/>
       </c>
-      <c r="D30" s="216"/>
-      <c r="E30" s="216" t="str">
+      <c r="D30" s="214"/>
+      <c r="E30" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E32</f>
         <v/>
       </c>
-      <c r="F30" s="216" t="str">
+      <c r="F30" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B39)),D30-E30,"")</f>
         <v/>
       </c>
-      <c r="G30" s="217"/>
+      <c r="G30" s="215"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -8084,24 +8051,24 @@
       <c r="S30"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B31" s="215" t="str">
+      <c r="B31" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B33</f>
         <v/>
       </c>
-      <c r="C31" s="215" t="str">
+      <c r="C31" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C33</f>
         <v/>
       </c>
-      <c r="D31" s="216"/>
-      <c r="E31" s="216" t="str">
+      <c r="D31" s="214"/>
+      <c r="E31" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E33</f>
         <v/>
       </c>
-      <c r="F31" s="216" t="str">
+      <c r="F31" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B40)),D31-E31,"")</f>
         <v/>
       </c>
-      <c r="G31" s="217"/>
+      <c r="G31" s="215"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -8115,24 +8082,24 @@
       <c r="S31"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B32" s="215" t="str">
+      <c r="B32" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B34</f>
         <v/>
       </c>
-      <c r="C32" s="215" t="str">
+      <c r="C32" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C34</f>
         <v/>
       </c>
-      <c r="D32" s="216"/>
-      <c r="E32" s="216" t="str">
+      <c r="D32" s="214"/>
+      <c r="E32" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E34</f>
         <v/>
       </c>
-      <c r="F32" s="216" t="str">
+      <c r="F32" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B41)),D32-E32,"")</f>
         <v/>
       </c>
-      <c r="G32" s="217"/>
+      <c r="G32" s="215"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -8146,24 +8113,24 @@
       <c r="S32"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B33" s="215" t="str">
+      <c r="B33" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B35</f>
         <v/>
       </c>
-      <c r="C33" s="215" t="str">
+      <c r="C33" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C35</f>
         <v/>
       </c>
-      <c r="D33" s="216"/>
-      <c r="E33" s="216" t="str">
+      <c r="D33" s="214"/>
+      <c r="E33" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E35</f>
         <v/>
       </c>
-      <c r="F33" s="216" t="str">
+      <c r="F33" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B42)),D33-E33,"")</f>
         <v/>
       </c>
-      <c r="G33" s="217"/>
+      <c r="G33" s="215"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -8177,24 +8144,24 @@
       <c r="S33"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B34" s="215" t="str">
+      <c r="B34" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B36</f>
         <v/>
       </c>
-      <c r="C34" s="215" t="str">
+      <c r="C34" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C36</f>
         <v/>
       </c>
-      <c r="D34" s="216"/>
-      <c r="E34" s="216" t="str">
+      <c r="D34" s="214"/>
+      <c r="E34" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E36</f>
         <v/>
       </c>
-      <c r="F34" s="216" t="str">
+      <c r="F34" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B43)),D34-E34,"")</f>
         <v/>
       </c>
-      <c r="G34" s="217"/>
+      <c r="G34" s="215"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -8208,24 +8175,24 @@
       <c r="S34"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B35" s="215" t="str">
+      <c r="B35" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B37</f>
         <v/>
       </c>
-      <c r="C35" s="215" t="str">
+      <c r="C35" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C37</f>
         <v/>
       </c>
-      <c r="D35" s="216"/>
-      <c r="E35" s="216" t="str">
+      <c r="D35" s="214"/>
+      <c r="E35" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E37</f>
         <v/>
       </c>
-      <c r="F35" s="216" t="str">
+      <c r="F35" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B44)),D35-E35,"")</f>
         <v/>
       </c>
-      <c r="G35" s="217"/>
+      <c r="G35" s="215"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -8239,24 +8206,24 @@
       <c r="S35"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B36" s="215" t="str">
+      <c r="B36" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B38</f>
         <v/>
       </c>
-      <c r="C36" s="215" t="str">
+      <c r="C36" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C38</f>
         <v/>
       </c>
-      <c r="D36" s="216"/>
-      <c r="E36" s="216" t="str">
+      <c r="D36" s="214"/>
+      <c r="E36" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E38</f>
         <v/>
       </c>
-      <c r="F36" s="216" t="str">
+      <c r="F36" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B45)),D36-E36,"")</f>
         <v/>
       </c>
-      <c r="G36" s="217"/>
+      <c r="G36" s="215"/>
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36"/>
@@ -8270,24 +8237,24 @@
       <c r="S36"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B37" s="215" t="str">
+      <c r="B37" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B39</f>
         <v/>
       </c>
-      <c r="C37" s="215" t="str">
+      <c r="C37" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C39</f>
         <v/>
       </c>
-      <c r="D37" s="216"/>
-      <c r="E37" s="216" t="str">
+      <c r="D37" s="214"/>
+      <c r="E37" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E39</f>
         <v/>
       </c>
-      <c r="F37" s="216" t="str">
+      <c r="F37" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B46)),D37-E37,"")</f>
         <v/>
       </c>
-      <c r="G37" s="217"/>
+      <c r="G37" s="215"/>
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
@@ -8301,24 +8268,24 @@
       <c r="S37"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B38" s="215" t="str">
+      <c r="B38" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B40</f>
         <v/>
       </c>
-      <c r="C38" s="215" t="str">
+      <c r="C38" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C40</f>
         <v/>
       </c>
-      <c r="D38" s="216"/>
-      <c r="E38" s="216" t="str">
+      <c r="D38" s="214"/>
+      <c r="E38" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E40</f>
         <v/>
       </c>
-      <c r="F38" s="216" t="str">
+      <c r="F38" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B47)),D38-E38,"")</f>
         <v/>
       </c>
-      <c r="G38" s="217"/>
+      <c r="G38" s="215"/>
       <c r="I38"/>
       <c r="J38"/>
       <c r="K38"/>
@@ -8332,24 +8299,24 @@
       <c r="S38"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B39" s="215" t="str">
+      <c r="B39" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B41</f>
         <v/>
       </c>
-      <c r="C39" s="215" t="str">
+      <c r="C39" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C41</f>
         <v/>
       </c>
-      <c r="D39" s="216"/>
-      <c r="E39" s="216" t="str">
+      <c r="D39" s="214"/>
+      <c r="E39" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E41</f>
         <v/>
       </c>
-      <c r="F39" s="216" t="str">
+      <c r="F39" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B48)),D39-E39,"")</f>
         <v/>
       </c>
-      <c r="G39" s="217"/>
+      <c r="G39" s="215"/>
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39"/>
@@ -8363,24 +8330,24 @@
       <c r="S39"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B40" s="215" t="str">
+      <c r="B40" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B42</f>
         <v/>
       </c>
-      <c r="C40" s="215" t="str">
+      <c r="C40" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C42</f>
         <v/>
       </c>
-      <c r="D40" s="216"/>
-      <c r="E40" s="216" t="str">
+      <c r="D40" s="214"/>
+      <c r="E40" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E42</f>
         <v/>
       </c>
-      <c r="F40" s="216" t="str">
+      <c r="F40" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B49)),D40-E40,"")</f>
         <v/>
       </c>
-      <c r="G40" s="217"/>
+      <c r="G40" s="215"/>
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
@@ -8394,24 +8361,24 @@
       <c r="S40"/>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B41" s="215" t="str">
+      <c r="B41" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B43</f>
         <v/>
       </c>
-      <c r="C41" s="215" t="str">
+      <c r="C41" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C43</f>
         <v/>
       </c>
-      <c r="D41" s="216"/>
-      <c r="E41" s="216" t="str">
+      <c r="D41" s="214"/>
+      <c r="E41" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E43</f>
         <v/>
       </c>
-      <c r="F41" s="216" t="str">
+      <c r="F41" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B50)),D41-E41,"")</f>
         <v/>
       </c>
-      <c r="G41" s="217"/>
+      <c r="G41" s="215"/>
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
@@ -8425,24 +8392,24 @@
       <c r="S41"/>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B42" s="215" t="str">
+      <c r="B42" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B44</f>
         <v/>
       </c>
-      <c r="C42" s="215" t="str">
+      <c r="C42" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C44</f>
         <v/>
       </c>
-      <c r="D42" s="216"/>
-      <c r="E42" s="216" t="str">
+      <c r="D42" s="214"/>
+      <c r="E42" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E44</f>
         <v/>
       </c>
-      <c r="F42" s="216" t="str">
+      <c r="F42" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B51)),D42-E42,"")</f>
         <v/>
       </c>
-      <c r="G42" s="217"/>
+      <c r="G42" s="215"/>
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
@@ -8456,24 +8423,24 @@
       <c r="S42"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B43" s="215" t="str">
+      <c r="B43" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!B45</f>
         <v/>
       </c>
-      <c r="C43" s="215" t="str">
+      <c r="C43" s="213" t="str">
         <f>'Přehled o vybraných poplatcích'!C45</f>
         <v/>
       </c>
-      <c r="D43" s="216"/>
-      <c r="E43" s="216" t="str">
+      <c r="D43" s="214"/>
+      <c r="E43" s="214" t="str">
         <f>'Přehled o vybraných poplatcích'!E45</f>
         <v/>
       </c>
-      <c r="F43" s="216" t="str">
+      <c r="F43" s="214" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B52)),D43-E43,"")</f>
         <v/>
       </c>
-      <c r="G43" s="217"/>
+      <c r="G43" s="215"/>
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
@@ -8497,14 +8464,14 @@
     <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B45" s="157"/>
       <c r="C45" s="157" t="s">
-        <v>235</v>
-      </c>
-      <c r="D45" s="216">
+        <v>233</v>
+      </c>
+      <c r="D45" s="214">
         <f>SUM(D10:D43)</f>
-        <v>3900</v>
-      </c>
-      <c r="E45" s="216"/>
-      <c r="F45" s="216">
+        <v>0</v>
+      </c>
+      <c r="E45" s="214"/>
+      <c r="F45" s="214">
         <f>SUM(F10:F43)</f>
         <v>0</v>
       </c>
@@ -8513,11 +8480,11 @@
     <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B46" s="157"/>
       <c r="C46" s="157" t="s">
-        <v>236</v>
-      </c>
-      <c r="D46" s="196">
+        <v>234</v>
+      </c>
+      <c r="D46" s="194">
         <f>D45-'Soupis výdajů'!D44</f>
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="E46" s="157"/>
       <c r="F46" s="157"/>
@@ -8526,9 +8493,9 @@
     <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B47" s="157"/>
       <c r="C47" s="157" t="s">
-        <v>237</v>
-      </c>
-      <c r="D47" s="196"/>
+        <v>235</v>
+      </c>
+      <c r="D47" s="194"/>
       <c r="E47" s="157"/>
       <c r="F47" s="157"/>
       <c r="G47" s="157"/>
@@ -8540,22 +8507,22 @@
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E50" s="189"/>
+      <c r="E50" s="187"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E51" s="189"/>
+      <c r="E51" s="187"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E52" s="189"/>
+      <c r="E52" s="187"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E53" s="189"/>
+      <c r="E53" s="187"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E54" s="185"/>
+      <c r="E54" s="183"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D55" s="189"/>
+      <c r="D55" s="187"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59"/>
@@ -8564,7 +8531,7 @@
       <c r="C64"/>
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F65" s="189"/>
+      <c r="F65" s="187"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1"/>
@@ -8605,18 +8572,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="242" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
+      <c r="A1" s="223" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="223"/>
       <c r="IN1" s="35"/>
       <c r="IO1" s="35"/>
       <c r="IP1" s="35"/>
@@ -8629,15 +8596,15 @@
     </row>
     <row r="2" spans="1:256" s="34" customFormat="1" ht="29.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="218" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
       <c r="IN2" s="35"/>
@@ -8693,17 +8660,17 @@
         <v>40</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="243" t="s">
+      <c r="D7" s="224" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="243"/>
+      <c r="E7" s="224"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="244" t="s">
+      <c r="G7" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="244"/>
-      <c r="I7" s="244"/>
-      <c r="J7" s="244"/>
+      <c r="H7" s="225"/>
+      <c r="I7" s="225"/>
+      <c r="J7" s="225"/>
     </row>
     <row r="8" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
@@ -8712,19 +8679,19 @@
         <v>Šán</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="245" t="str">
+      <c r="D8" s="226" t="str">
         <f ca="1">IF(AND(ISNUMBER('Seznam účastníků'!B5),ISNUMBER('Seznam účastníků'!B6)),IF(ISNUMBER(VALUE(TEXT(TODAY(),"rrrr"))),TEXT('Seznam účastníků'!B5,"dd.mm.rrrr")&amp;" - "&amp;TEXT('Seznam účastníků'!B6,"dd.mm.rrrr"),TEXT('Seznam účastníků'!B5,"dd.mm.yyyy")&amp;" - "&amp;TEXT('Seznam účastníků'!B6,"dd.mm.yyyy"))," ")</f>
-        <v>30.12.2009 - 02.01.2010</v>
-      </c>
-      <c r="E8" s="245"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E8" s="226"/>
       <c r="F8" s="35"/>
-      <c r="G8" s="246" t="str">
+      <c r="G8" s="227">
         <f>IF(ISBLANK(Seznam_do_35_účastníků!C6),IF(ISBLANK(Seznam_do_70_účastníků!C6)," ",Seznam_do_70_účastníků!C6),Seznam_do_35_účastníků!C6)</f>
-        <v>Dno pytle</v>
-      </c>
-      <c r="H8" s="246"/>
-      <c r="I8" s="246"/>
-      <c r="J8" s="246"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="227"/>
+      <c r="I8" s="227"/>
+      <c r="J8" s="227"/>
     </row>
     <row r="9" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
@@ -8790,354 +8757,354 @@
       <c r="B14" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="236" t="s">
+      <c r="C14" s="228" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="236"/>
-      <c r="E14" s="237" t="s">
+      <c r="D14" s="228"/>
+      <c r="E14" s="229" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="237"/>
-      <c r="G14" s="237"/>
+      <c r="F14" s="229"/>
+      <c r="G14" s="229"/>
       <c r="H14" s="52"/>
-      <c r="I14" s="238" t="s">
+      <c r="I14" s="230" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="238"/>
+      <c r="J14" s="230"/>
     </row>
     <row r="15" spans="1:256" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="239">
+      <c r="C15" s="231">
         <v>40179</v>
       </c>
-      <c r="D15" s="239"/>
-      <c r="E15" s="240" t="s">
+      <c r="D15" s="231"/>
+      <c r="E15" s="232" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="240"/>
-      <c r="G15" s="240"/>
+      <c r="F15" s="232"/>
+      <c r="G15" s="232"/>
       <c r="H15" s="54"/>
-      <c r="I15" s="241">
+      <c r="I15" s="233">
         <v>100</v>
       </c>
-      <c r="J15" s="241"/>
+      <c r="J15" s="233"/>
     </row>
     <row r="16" spans="1:256" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="55"/>
-      <c r="C16" s="235"/>
-      <c r="D16" s="235"/>
-      <c r="E16" s="229" t="s">
+      <c r="C16" s="234"/>
+      <c r="D16" s="234"/>
+      <c r="E16" s="235" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="229"/>
-      <c r="G16" s="229"/>
+      <c r="F16" s="235"/>
+      <c r="G16" s="235"/>
       <c r="H16" s="54"/>
-      <c r="I16" s="230">
+      <c r="I16" s="236">
         <v>3042</v>
       </c>
-      <c r="J16" s="230"/>
+      <c r="J16" s="236"/>
     </row>
     <row r="17" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="53"/>
-      <c r="C17" s="234"/>
-      <c r="D17" s="234"/>
-      <c r="E17" s="229"/>
-      <c r="F17" s="229"/>
-      <c r="G17" s="229"/>
+      <c r="C17" s="237"/>
+      <c r="D17" s="237"/>
+      <c r="E17" s="235"/>
+      <c r="F17" s="235"/>
+      <c r="G17" s="235"/>
       <c r="H17" s="54"/>
-      <c r="I17" s="230"/>
-      <c r="J17" s="230"/>
+      <c r="I17" s="236"/>
+      <c r="J17" s="236"/>
     </row>
     <row r="18" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="53"/>
-      <c r="C18" s="234"/>
-      <c r="D18" s="234"/>
-      <c r="E18" s="229"/>
-      <c r="F18" s="229"/>
-      <c r="G18" s="229"/>
+      <c r="C18" s="237"/>
+      <c r="D18" s="237"/>
+      <c r="E18" s="235"/>
+      <c r="F18" s="235"/>
+      <c r="G18" s="235"/>
       <c r="H18" s="54"/>
-      <c r="I18" s="230"/>
-      <c r="J18" s="230"/>
+      <c r="I18" s="236"/>
+      <c r="J18" s="236"/>
     </row>
     <row r="19" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="53"/>
-      <c r="C19" s="234"/>
-      <c r="D19" s="234"/>
-      <c r="E19" s="229"/>
-      <c r="F19" s="229"/>
-      <c r="G19" s="229"/>
+      <c r="C19" s="237"/>
+      <c r="D19" s="237"/>
+      <c r="E19" s="235"/>
+      <c r="F19" s="235"/>
+      <c r="G19" s="235"/>
       <c r="H19" s="54"/>
-      <c r="I19" s="230"/>
-      <c r="J19" s="230"/>
+      <c r="I19" s="236"/>
+      <c r="J19" s="236"/>
     </row>
     <row r="20" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="53"/>
-      <c r="C20" s="234"/>
-      <c r="D20" s="234"/>
-      <c r="E20" s="229"/>
-      <c r="F20" s="229"/>
-      <c r="G20" s="229"/>
+      <c r="C20" s="237"/>
+      <c r="D20" s="237"/>
+      <c r="E20" s="235"/>
+      <c r="F20" s="235"/>
+      <c r="G20" s="235"/>
       <c r="H20" s="54"/>
-      <c r="I20" s="230"/>
-      <c r="J20" s="230"/>
+      <c r="I20" s="236"/>
+      <c r="J20" s="236"/>
     </row>
     <row r="21" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="53"/>
-      <c r="C21" s="233"/>
-      <c r="D21" s="233"/>
-      <c r="E21" s="229"/>
-      <c r="F21" s="229"/>
-      <c r="G21" s="229"/>
+      <c r="C21" s="238"/>
+      <c r="D21" s="238"/>
+      <c r="E21" s="235"/>
+      <c r="F21" s="235"/>
+      <c r="G21" s="235"/>
       <c r="H21" s="54"/>
-      <c r="I21" s="230"/>
-      <c r="J21" s="230"/>
+      <c r="I21" s="236"/>
+      <c r="J21" s="236"/>
     </row>
     <row r="22" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="53"/>
-      <c r="C22" s="233"/>
-      <c r="D22" s="233"/>
-      <c r="E22" s="229"/>
-      <c r="F22" s="229"/>
-      <c r="G22" s="229"/>
+      <c r="C22" s="238"/>
+      <c r="D22" s="238"/>
+      <c r="E22" s="235"/>
+      <c r="F22" s="235"/>
+      <c r="G22" s="235"/>
       <c r="H22" s="54"/>
-      <c r="I22" s="230"/>
-      <c r="J22" s="230"/>
+      <c r="I22" s="236"/>
+      <c r="J22" s="236"/>
     </row>
     <row r="23" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="53"/>
-      <c r="C23" s="233"/>
-      <c r="D23" s="233"/>
-      <c r="E23" s="229"/>
-      <c r="F23" s="229"/>
-      <c r="G23" s="229"/>
+      <c r="C23" s="238"/>
+      <c r="D23" s="238"/>
+      <c r="E23" s="235"/>
+      <c r="F23" s="235"/>
+      <c r="G23" s="235"/>
       <c r="H23" s="54"/>
-      <c r="I23" s="230"/>
-      <c r="J23" s="230"/>
+      <c r="I23" s="236"/>
+      <c r="J23" s="236"/>
     </row>
     <row r="24" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="53"/>
-      <c r="C24" s="233"/>
-      <c r="D24" s="233"/>
-      <c r="E24" s="229"/>
-      <c r="F24" s="229"/>
-      <c r="G24" s="229"/>
+      <c r="C24" s="238"/>
+      <c r="D24" s="238"/>
+      <c r="E24" s="235"/>
+      <c r="F24" s="235"/>
+      <c r="G24" s="235"/>
       <c r="H24" s="54"/>
-      <c r="I24" s="230"/>
-      <c r="J24" s="230"/>
+      <c r="I24" s="236"/>
+      <c r="J24" s="236"/>
     </row>
     <row r="25" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="53"/>
-      <c r="C25" s="233"/>
-      <c r="D25" s="233"/>
-      <c r="E25" s="229"/>
-      <c r="F25" s="229"/>
-      <c r="G25" s="229"/>
+      <c r="C25" s="238"/>
+      <c r="D25" s="238"/>
+      <c r="E25" s="235"/>
+      <c r="F25" s="235"/>
+      <c r="G25" s="235"/>
       <c r="H25" s="54"/>
-      <c r="I25" s="230"/>
-      <c r="J25" s="230"/>
+      <c r="I25" s="236"/>
+      <c r="J25" s="236"/>
     </row>
     <row r="26" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="53"/>
-      <c r="C26" s="233"/>
-      <c r="D26" s="233"/>
-      <c r="E26" s="229"/>
-      <c r="F26" s="229"/>
-      <c r="G26" s="229"/>
+      <c r="C26" s="238"/>
+      <c r="D26" s="238"/>
+      <c r="E26" s="235"/>
+      <c r="F26" s="235"/>
+      <c r="G26" s="235"/>
       <c r="H26" s="54"/>
-      <c r="I26" s="230"/>
-      <c r="J26" s="230"/>
+      <c r="I26" s="236"/>
+      <c r="J26" s="236"/>
     </row>
     <row r="27" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="56"/>
-      <c r="C27" s="228"/>
-      <c r="D27" s="228"/>
-      <c r="E27" s="229"/>
-      <c r="F27" s="229"/>
-      <c r="G27" s="229"/>
+      <c r="C27" s="239"/>
+      <c r="D27" s="239"/>
+      <c r="E27" s="235"/>
+      <c r="F27" s="235"/>
+      <c r="G27" s="235"/>
       <c r="H27" s="54"/>
-      <c r="I27" s="230"/>
-      <c r="J27" s="230"/>
+      <c r="I27" s="236"/>
+      <c r="J27" s="236"/>
     </row>
     <row r="28" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="56"/>
-      <c r="C28" s="228"/>
-      <c r="D28" s="228"/>
-      <c r="E28" s="229"/>
-      <c r="F28" s="229"/>
-      <c r="G28" s="229"/>
+      <c r="C28" s="239"/>
+      <c r="D28" s="239"/>
+      <c r="E28" s="235"/>
+      <c r="F28" s="235"/>
+      <c r="G28" s="235"/>
       <c r="H28" s="54"/>
-      <c r="I28" s="230"/>
-      <c r="J28" s="230"/>
+      <c r="I28" s="236"/>
+      <c r="J28" s="236"/>
     </row>
     <row r="29" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="56"/>
-      <c r="C29" s="228"/>
-      <c r="D29" s="228"/>
-      <c r="E29" s="229"/>
-      <c r="F29" s="229"/>
-      <c r="G29" s="229"/>
+      <c r="C29" s="239"/>
+      <c r="D29" s="239"/>
+      <c r="E29" s="235"/>
+      <c r="F29" s="235"/>
+      <c r="G29" s="235"/>
       <c r="H29" s="54"/>
-      <c r="I29" s="230"/>
-      <c r="J29" s="230"/>
+      <c r="I29" s="236"/>
+      <c r="J29" s="236"/>
     </row>
     <row r="30" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="56"/>
-      <c r="C30" s="228"/>
-      <c r="D30" s="228"/>
-      <c r="E30" s="229"/>
-      <c r="F30" s="229"/>
-      <c r="G30" s="229"/>
+      <c r="C30" s="239"/>
+      <c r="D30" s="239"/>
+      <c r="E30" s="235"/>
+      <c r="F30" s="235"/>
+      <c r="G30" s="235"/>
       <c r="H30" s="54"/>
-      <c r="I30" s="230"/>
-      <c r="J30" s="230"/>
+      <c r="I30" s="236"/>
+      <c r="J30" s="236"/>
     </row>
     <row r="31" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="56"/>
-      <c r="C31" s="228"/>
-      <c r="D31" s="228"/>
-      <c r="E31" s="229"/>
-      <c r="F31" s="229"/>
-      <c r="G31" s="229"/>
+      <c r="C31" s="239"/>
+      <c r="D31" s="239"/>
+      <c r="E31" s="235"/>
+      <c r="F31" s="235"/>
+      <c r="G31" s="235"/>
       <c r="H31" s="54"/>
-      <c r="I31" s="230"/>
-      <c r="J31" s="230"/>
+      <c r="I31" s="236"/>
+      <c r="J31" s="236"/>
     </row>
     <row r="32" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="56"/>
-      <c r="C32" s="228"/>
-      <c r="D32" s="228"/>
-      <c r="E32" s="229"/>
-      <c r="F32" s="229"/>
-      <c r="G32" s="229"/>
+      <c r="C32" s="239"/>
+      <c r="D32" s="239"/>
+      <c r="E32" s="235"/>
+      <c r="F32" s="235"/>
+      <c r="G32" s="235"/>
       <c r="H32" s="54"/>
-      <c r="I32" s="230"/>
-      <c r="J32" s="230"/>
+      <c r="I32" s="236"/>
+      <c r="J32" s="236"/>
     </row>
     <row r="33" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="56"/>
-      <c r="C33" s="228"/>
-      <c r="D33" s="228"/>
-      <c r="E33" s="229"/>
-      <c r="F33" s="229"/>
-      <c r="G33" s="229"/>
+      <c r="C33" s="239"/>
+      <c r="D33" s="239"/>
+      <c r="E33" s="235"/>
+      <c r="F33" s="235"/>
+      <c r="G33" s="235"/>
       <c r="H33" s="54"/>
-      <c r="I33" s="230"/>
-      <c r="J33" s="230"/>
+      <c r="I33" s="236"/>
+      <c r="J33" s="236"/>
     </row>
     <row r="34" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="56"/>
-      <c r="C34" s="228"/>
-      <c r="D34" s="228"/>
-      <c r="E34" s="229"/>
-      <c r="F34" s="229"/>
-      <c r="G34" s="229"/>
+      <c r="C34" s="239"/>
+      <c r="D34" s="239"/>
+      <c r="E34" s="235"/>
+      <c r="F34" s="235"/>
+      <c r="G34" s="235"/>
       <c r="H34" s="54"/>
-      <c r="I34" s="230"/>
-      <c r="J34" s="230"/>
+      <c r="I34" s="236"/>
+      <c r="J34" s="236"/>
     </row>
     <row r="35" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="56"/>
-      <c r="C35" s="228"/>
-      <c r="D35" s="228"/>
-      <c r="E35" s="229"/>
-      <c r="F35" s="229"/>
-      <c r="G35" s="229"/>
+      <c r="C35" s="239"/>
+      <c r="D35" s="239"/>
+      <c r="E35" s="235"/>
+      <c r="F35" s="235"/>
+      <c r="G35" s="235"/>
       <c r="H35" s="54"/>
-      <c r="I35" s="230"/>
-      <c r="J35" s="230"/>
+      <c r="I35" s="236"/>
+      <c r="J35" s="236"/>
     </row>
     <row r="36" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="56"/>
-      <c r="C36" s="228"/>
-      <c r="D36" s="228"/>
-      <c r="E36" s="229"/>
-      <c r="F36" s="229"/>
-      <c r="G36" s="229"/>
+      <c r="C36" s="239"/>
+      <c r="D36" s="239"/>
+      <c r="E36" s="235"/>
+      <c r="F36" s="235"/>
+      <c r="G36" s="235"/>
       <c r="H36" s="54"/>
-      <c r="I36" s="230"/>
-      <c r="J36" s="230"/>
+      <c r="I36" s="236"/>
+      <c r="J36" s="236"/>
     </row>
     <row r="37" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="56"/>
-      <c r="C37" s="228"/>
-      <c r="D37" s="228"/>
-      <c r="E37" s="229"/>
-      <c r="F37" s="229"/>
-      <c r="G37" s="229"/>
+      <c r="C37" s="239"/>
+      <c r="D37" s="239"/>
+      <c r="E37" s="235"/>
+      <c r="F37" s="235"/>
+      <c r="G37" s="235"/>
       <c r="H37" s="54"/>
-      <c r="I37" s="230"/>
-      <c r="J37" s="230"/>
+      <c r="I37" s="236"/>
+      <c r="J37" s="236"/>
     </row>
     <row r="38" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="56"/>
-      <c r="C38" s="228"/>
-      <c r="D38" s="228"/>
-      <c r="E38" s="229"/>
-      <c r="F38" s="229"/>
-      <c r="G38" s="229"/>
+      <c r="C38" s="239"/>
+      <c r="D38" s="239"/>
+      <c r="E38" s="235"/>
+      <c r="F38" s="235"/>
+      <c r="G38" s="235"/>
       <c r="H38" s="54"/>
-      <c r="I38" s="230"/>
-      <c r="J38" s="230"/>
+      <c r="I38" s="236"/>
+      <c r="J38" s="236"/>
     </row>
     <row r="39" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="56"/>
-      <c r="C39" s="231"/>
-      <c r="D39" s="231"/>
-      <c r="E39" s="232"/>
-      <c r="F39" s="232"/>
-      <c r="G39" s="232"/>
+      <c r="C39" s="243"/>
+      <c r="D39" s="243"/>
+      <c r="E39" s="244"/>
+      <c r="F39" s="244"/>
+      <c r="G39" s="244"/>
       <c r="H39" s="57"/>
-      <c r="I39" s="230"/>
-      <c r="J39" s="230"/>
+      <c r="I39" s="236"/>
+      <c r="J39" s="236"/>
     </row>
     <row r="40" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
-      <c r="B40" s="225" t="s">
+      <c r="B40" s="240" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="225"/>
-      <c r="D40" s="225"/>
+      <c r="C40" s="240"/>
+      <c r="D40" s="240"/>
       <c r="F40" s="58">
         <f>IF(AND(ISNUMBER('Seznam účastníků'!B5),ISNUMBER('Seznam účastníků'!B6)),('Seznam účastníků'!B6-'Seznam účastníků'!B5+1),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G40" s="27" t="e">
         <f>IF(F7&lt;&gt;"T",100*D10*F40,50*D10*F40)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H40" s="34"/>
-      <c r="I40" s="226">
+      <c r="I40" s="241">
         <f>SUM(I15:J39)</f>
         <v>3142</v>
       </c>
-      <c r="J40" s="226"/>
+      <c r="J40" s="241"/>
     </row>
     <row r="41" spans="1:10" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="31" t="s">
@@ -9154,10 +9121,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="H41" s="27"/>
-      <c r="I41" s="227">
+      <c r="I41" s="242">
         <v>100</v>
       </c>
-      <c r="J41" s="227"/>
+      <c r="J41" s="242"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="29"/>
@@ -9165,10 +9132,10 @@
         <v>55</v>
       </c>
       <c r="E42" s="35"/>
-      <c r="I42" s="227">
+      <c r="I42" s="242">
         <v>160</v>
       </c>
-      <c r="J42" s="227"/>
+      <c r="J42" s="242"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E43" s="1" t="e">
@@ -9179,7 +9146,7 @@
     <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="30" t="str">
         <f ca="1">IF($B$15&lt;&gt;"","Datum: "&amp;IF(ISNUMBER(VALUE(TEXT(TODAY(),"rrrr"))),TEXT(TODAY(),"dd.mm.rrrr"),TEXT(TODAY(),"dd.mm.yyyy")),"Datum: ........................................")</f>
-        <v>Datum: 23.12.2018</v>
+        <v>Datum: 10.01.2019</v>
       </c>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
@@ -9202,84 +9169,6 @@
   </sheetData>
   <sheetProtection sheet="1"/>
   <mergeCells count="88">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="I37:J37"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I41:J41"/>
@@ -9290,6 +9179,84 @@
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="E39:G39"/>
     <mergeCell ref="I39:J39"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:J8"/>
   </mergeCells>
   <conditionalFormatting sqref="I41">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
@@ -9326,14 +9293,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" s="60" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="245" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="247"/>
-      <c r="F1" s="247"/>
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
+      <c r="F1" s="245"/>
       <c r="IU1"/>
       <c r="IV1"/>
     </row>
@@ -9378,11 +9345,11 @@
       <c r="B5" s="48"/>
       <c r="C5" s="64">
         <f>'Seznam účastníků'!B5</f>
-        <v>40177</v>
+        <v>0</v>
       </c>
       <c r="D5" s="64">
         <f>'Seznam účastníků'!B6</f>
-        <v>40180</v>
+        <v>0</v>
       </c>
       <c r="E5" s="49"/>
       <c r="F5" s="49"/>
@@ -9393,9 +9360,9 @@
         <v>63</v>
       </c>
       <c r="B6" s="48"/>
-      <c r="C6" s="64" t="str">
+      <c r="C6" s="64">
         <f>'Seznam účastníků'!B4</f>
-        <v>Dno pytle</v>
+        <v>0</v>
       </c>
       <c r="D6" s="49"/>
       <c r="E6" s="49"/>
@@ -11196,14 +11163,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" s="60" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="245" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="247"/>
-      <c r="F1" s="247"/>
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
+      <c r="F1" s="245"/>
       <c r="IV1"/>
     </row>
     <row r="2" spans="1:256" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -12970,8 +12937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:IV99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12992,18 +12959,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" s="90" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="258"/>
-      <c r="C1" s="258"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="258"/>
-      <c r="F1" s="258"/>
-      <c r="G1" s="258"/>
-      <c r="H1" s="258"/>
-      <c r="I1" s="258"/>
-      <c r="J1" s="258"/>
+      <c r="A1" s="248" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="248"/>
+      <c r="G1" s="248"/>
+      <c r="H1" s="248"/>
+      <c r="I1" s="248"/>
+      <c r="J1" s="248"/>
       <c r="K1" s="89"/>
       <c r="L1" s="89"/>
       <c r="M1" s="89"/>
@@ -13024,20 +12991,20 @@
       <c r="IV1" s="89"/>
     </row>
     <row r="2" spans="1:256" s="90" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="259" t="str">
+      <c r="A2" s="249" t="str">
         <f>'Formulář  AKCE'!B2</f>
         <v>smlouvy č. DAG/61/03/001435/2009 o poskytnutí finančních prostředků
 Příloha k vyúčtování akcí a táborů</v>
       </c>
-      <c r="B2" s="259"/>
-      <c r="C2" s="259"/>
-      <c r="D2" s="259"/>
-      <c r="E2" s="259"/>
-      <c r="F2" s="259"/>
-      <c r="G2" s="259"/>
-      <c r="H2" s="259"/>
-      <c r="I2" s="259"/>
-      <c r="J2" s="259"/>
+      <c r="B2" s="249"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
+      <c r="J2" s="249"/>
       <c r="K2" s="89"/>
       <c r="L2" s="89"/>
       <c r="M2" s="89"/>
@@ -13100,17 +13067,17 @@
         <v>40</v>
       </c>
       <c r="C7" s="92"/>
-      <c r="D7" s="260" t="s">
+      <c r="D7" s="250" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="260"/>
+      <c r="E7" s="250"/>
       <c r="F7" s="91"/>
-      <c r="G7" s="261" t="s">
+      <c r="G7" s="251" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="261"/>
-      <c r="I7" s="261"/>
-      <c r="J7" s="261"/>
+      <c r="H7" s="251"/>
+      <c r="I7" s="251"/>
+      <c r="J7" s="251"/>
     </row>
     <row r="8" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A8" s="92"/>
@@ -13119,19 +13086,19 @@
         <v>Šán</v>
       </c>
       <c r="C8" s="92"/>
-      <c r="D8" s="262" t="str">
+      <c r="D8" s="252" t="str">
         <f ca="1">IF(AND(ISNUMBER('Seznam účastníků'!B5),ISNUMBER('Seznam účastníků'!B6)),IF(ISNUMBER(VALUE(TEXT(TODAY(),"rrrr"))),TEXT('Seznam účastníků'!B5,"dd.mm.rrrr")&amp;" - "&amp;TEXT('Seznam účastníků'!B6,"dd.mm.rrrr"),TEXT('Seznam účastníků'!B5,"dd.mm.yyyy")&amp;" - "&amp;TEXT('Seznam účastníků'!B6,"dd.mm.yyyy"))," ")</f>
-        <v>30.12.2009 - 02.01.2010</v>
-      </c>
-      <c r="E8" s="262"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E8" s="252"/>
       <c r="F8" s="89"/>
-      <c r="G8" s="263" t="str">
+      <c r="G8" s="253">
         <f>IF(ISBLANK(Seznam_do_35_účastníků!C6),IF(ISBLANK(Seznam_do_70_účastníků!C6)," ",Seznam_do_70_účastníků!C6),Seznam_do_35_účastníků!C6)</f>
-        <v>Dno pytle</v>
-      </c>
-      <c r="H8" s="263"/>
-      <c r="I8" s="263"/>
-      <c r="J8" s="263"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="253"/>
+      <c r="I8" s="253"/>
+      <c r="J8" s="253"/>
     </row>
     <row r="9" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A9" s="92"/>
@@ -13190,18 +13157,18 @@
       <c r="J12" s="89"/>
     </row>
     <row r="13" spans="1:256" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="256" t="s">
+      <c r="A13" s="254" t="s">
         <v>130</v>
       </c>
-      <c r="B13" s="256"/>
-      <c r="C13" s="256"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="256"/>
-      <c r="F13" s="256"/>
-      <c r="G13" s="256"/>
-      <c r="H13" s="256"/>
-      <c r="I13" s="256"/>
-      <c r="J13" s="256"/>
+      <c r="B13" s="254"/>
+      <c r="C13" s="254"/>
+      <c r="D13" s="254"/>
+      <c r="E13" s="254"/>
+      <c r="F13" s="254"/>
+      <c r="G13" s="254"/>
+      <c r="H13" s="254"/>
+      <c r="I13" s="254"/>
+      <c r="J13" s="254"/>
     </row>
     <row r="14" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A14" s="92"/>
@@ -13217,91 +13184,91 @@
     </row>
     <row r="15" spans="1:256" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="92"/>
-      <c r="B15" s="254" t="s">
+      <c r="B15" s="255" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="254"/>
-      <c r="D15" s="254"/>
-      <c r="E15" s="254"/>
-      <c r="F15" s="254"/>
+      <c r="C15" s="255"/>
+      <c r="D15" s="255"/>
+      <c r="E15" s="255"/>
+      <c r="F15" s="255"/>
       <c r="G15" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="H15" s="255" t="s">
+      <c r="H15" s="256" t="s">
         <v>133</v>
       </c>
-      <c r="I15" s="255"/>
+      <c r="I15" s="256"/>
       <c r="J15" s="103"/>
     </row>
     <row r="16" spans="1:256" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="92"/>
-      <c r="B16" s="251" t="s">
+      <c r="B16" s="246" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="251"/>
-      <c r="D16" s="251"/>
-      <c r="E16" s="251"/>
-      <c r="F16" s="251"/>
+      <c r="C16" s="246"/>
+      <c r="D16" s="246"/>
+      <c r="E16" s="246"/>
+      <c r="F16" s="246"/>
       <c r="G16" s="104">
         <f>'Přehled o vybraných poplatcích'!E49</f>
         <v>0</v>
       </c>
-      <c r="H16" s="257"/>
-      <c r="I16" s="257"/>
+      <c r="H16" s="247"/>
+      <c r="I16" s="247"/>
       <c r="J16" s="103"/>
     </row>
     <row r="17" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="92"/>
-      <c r="B17" s="251" t="s">
+      <c r="B17" s="246" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="251"/>
-      <c r="D17" s="251"/>
-      <c r="E17" s="251"/>
-      <c r="F17" s="251"/>
+      <c r="C17" s="246"/>
+      <c r="D17" s="246"/>
+      <c r="E17" s="246"/>
+      <c r="F17" s="246"/>
       <c r="G17" s="105">
         <v>0</v>
       </c>
-      <c r="H17" s="257">
+      <c r="H17" s="247">
         <v>1000</v>
       </c>
-      <c r="I17" s="257"/>
+      <c r="I17" s="247"/>
       <c r="J17" s="103"/>
     </row>
     <row r="18" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="92"/>
-      <c r="B18" s="251" t="s">
+      <c r="B18" s="246" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="251"/>
-      <c r="D18" s="251"/>
-      <c r="E18" s="251"/>
-      <c r="F18" s="251"/>
+      <c r="C18" s="246"/>
+      <c r="D18" s="246"/>
+      <c r="E18" s="246"/>
+      <c r="F18" s="246"/>
       <c r="G18" s="105">
         <v>62</v>
       </c>
-      <c r="H18" s="252"/>
-      <c r="I18" s="252"/>
+      <c r="H18" s="257"/>
+      <c r="I18" s="257"/>
       <c r="J18" s="103"/>
     </row>
     <row r="19" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="92"/>
-      <c r="B19" s="251" t="s">
+      <c r="B19" s="246" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="251"/>
-      <c r="D19" s="251"/>
-      <c r="E19" s="251"/>
-      <c r="F19" s="251"/>
+      <c r="C19" s="246"/>
+      <c r="D19" s="246"/>
+      <c r="E19" s="246"/>
+      <c r="F19" s="246"/>
       <c r="G19" s="104">
         <f>SUM(G16:G18)</f>
         <v>62</v>
       </c>
-      <c r="H19" s="253">
+      <c r="H19" s="258">
         <f>SUM(H17:I18)</f>
         <v>1000</v>
       </c>
-      <c r="I19" s="253"/>
+      <c r="I19" s="258"/>
       <c r="J19" s="106">
         <f>G19+H19</f>
         <v>1062</v>
@@ -13321,118 +13288,118 @@
     </row>
     <row r="21" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="92"/>
-      <c r="B21" s="254" t="s">
+      <c r="B21" s="255" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="254"/>
-      <c r="D21" s="254"/>
-      <c r="E21" s="254"/>
-      <c r="F21" s="254"/>
+      <c r="C21" s="255"/>
+      <c r="D21" s="255"/>
+      <c r="E21" s="255"/>
+      <c r="F21" s="255"/>
       <c r="G21" s="109" t="s">
         <v>132</v>
       </c>
-      <c r="H21" s="255" t="s">
+      <c r="H21" s="256" t="s">
         <v>139</v>
       </c>
-      <c r="I21" s="255"/>
+      <c r="I21" s="256"/>
       <c r="J21" s="103"/>
     </row>
     <row r="22" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="92"/>
-      <c r="B22" s="248" t="s">
+      <c r="B22" s="259" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="248"/>
-      <c r="D22" s="248"/>
-      <c r="E22" s="248"/>
-      <c r="F22" s="248"/>
+      <c r="C22" s="259"/>
+      <c r="D22" s="259"/>
+      <c r="E22" s="259"/>
+      <c r="F22" s="259"/>
       <c r="G22" s="105">
         <v>1000</v>
       </c>
-      <c r="H22" s="249"/>
-      <c r="I22" s="249"/>
+      <c r="H22" s="260"/>
+      <c r="I22" s="260"/>
       <c r="J22" s="103"/>
     </row>
     <row r="23" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="92"/>
-      <c r="B23" s="248" t="s">
+      <c r="B23" s="259" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="248"/>
-      <c r="D23" s="248"/>
-      <c r="E23" s="248"/>
-      <c r="F23" s="248"/>
+      <c r="C23" s="259"/>
+      <c r="D23" s="259"/>
+      <c r="E23" s="259"/>
+      <c r="F23" s="259"/>
       <c r="G23" s="105">
         <v>100</v>
       </c>
-      <c r="H23" s="249"/>
-      <c r="I23" s="249"/>
+      <c r="H23" s="260"/>
+      <c r="I23" s="260"/>
       <c r="J23" s="103"/>
     </row>
     <row r="24" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="92"/>
-      <c r="B24" s="248" t="s">
+      <c r="B24" s="259" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="248"/>
-      <c r="D24" s="248"/>
-      <c r="E24" s="248"/>
-      <c r="F24" s="248"/>
+      <c r="C24" s="259"/>
+      <c r="D24" s="259"/>
+      <c r="E24" s="259"/>
+      <c r="F24" s="259"/>
       <c r="G24" s="105">
         <v>1840</v>
       </c>
-      <c r="H24" s="249"/>
-      <c r="I24" s="249"/>
+      <c r="H24" s="260"/>
+      <c r="I24" s="260"/>
       <c r="J24" s="103"/>
     </row>
     <row r="25" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="92"/>
-      <c r="B25" s="248" t="s">
+      <c r="B25" s="259" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="248"/>
-      <c r="D25" s="248"/>
-      <c r="E25" s="248"/>
-      <c r="F25" s="248"/>
+      <c r="C25" s="259"/>
+      <c r="D25" s="259"/>
+      <c r="E25" s="259"/>
+      <c r="F25" s="259"/>
       <c r="G25" s="105">
         <v>202</v>
       </c>
-      <c r="H25" s="249"/>
-      <c r="I25" s="249"/>
+      <c r="H25" s="260"/>
+      <c r="I25" s="260"/>
       <c r="J25" s="103"/>
     </row>
     <row r="26" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="92"/>
-      <c r="B26" s="248" t="s">
+      <c r="B26" s="259" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="248"/>
-      <c r="D26" s="248"/>
-      <c r="E26" s="248"/>
-      <c r="F26" s="248"/>
+      <c r="C26" s="259"/>
+      <c r="D26" s="259"/>
+      <c r="E26" s="259"/>
+      <c r="F26" s="259"/>
       <c r="G26" s="105"/>
-      <c r="H26" s="249"/>
-      <c r="I26" s="249"/>
+      <c r="H26" s="260"/>
+      <c r="I26" s="260"/>
       <c r="J26" s="103"/>
     </row>
     <row r="27" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="92"/>
-      <c r="B27" s="248" t="s">
+      <c r="B27" s="259" t="s">
         <v>145</v>
       </c>
-      <c r="C27" s="248"/>
-      <c r="D27" s="248"/>
-      <c r="E27" s="248"/>
-      <c r="F27" s="248"/>
+      <c r="C27" s="259"/>
+      <c r="D27" s="259"/>
+      <c r="E27" s="259"/>
+      <c r="F27" s="259"/>
       <c r="G27" s="104">
         <f>SUM(G22:G26)</f>
         <v>3142</v>
       </c>
-      <c r="H27" s="250">
+      <c r="H27" s="261">
         <f>SUM(I22:I26)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="250"/>
+      <c r="I27" s="261"/>
       <c r="J27" s="110">
         <f>G27+H27</f>
         <v>3142</v>
@@ -27317,6 +27284,24 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="31">
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="H21:I21"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="A1:J1"/>
@@ -27330,24 +27315,6 @@
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <pageMargins left="0.55972222222222223" right="0.50972222222222219" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -27377,18 +27344,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="264" t="s">
+      <c r="A1" s="262" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="264"/>
-      <c r="C1" s="264"/>
-      <c r="D1" s="264"/>
-      <c r="E1" s="264"/>
-      <c r="F1" s="264"/>
-      <c r="G1" s="264"/>
-      <c r="H1" s="264"/>
-      <c r="I1" s="264"/>
-      <c r="J1" s="264"/>
+      <c r="B1" s="262"/>
+      <c r="C1" s="262"/>
+      <c r="D1" s="262"/>
+      <c r="E1" s="262"/>
+      <c r="F1" s="262"/>
+      <c r="G1" s="262"/>
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="262"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="118"/>
@@ -27492,57 +27459,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="264" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
+      <c r="B1" s="264"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
     </row>
     <row r="2" spans="1:5" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="123" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="269" t="str">
+      <c r="B2" s="265">
         <f>IF(ISBLANK(Seznam_do_35_účastníků!C6)," ",Seznam_do_35_účastníků!C6)</f>
-        <v>Dno pytle</v>
-      </c>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
+        <v>0</v>
+      </c>
+      <c r="C2" s="265"/>
+      <c r="D2" s="265"/>
+      <c r="E2" s="265"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="124" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="269" t="str">
+      <c r="B3" s="265" t="str">
         <f>IF(ISBLANK(Seznam_do_35_účastníků!C2)," ",Seznam_do_35_účastníků!C2)</f>
         <v>Šán</v>
       </c>
-      <c r="C3" s="269"/>
-      <c r="D3" s="269"/>
-      <c r="E3" s="269"/>
+      <c r="C3" s="265"/>
+      <c r="D3" s="265"/>
+      <c r="E3" s="265"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="124" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="270" t="str">
+      <c r="B4" s="266" t="str">
         <f ca="1">IF(AND(ISNUMBER('Seznam účastníků'!B5),ISNUMBER('Seznam účastníků'!B6)),IF(ISNUMBER(VALUE(TEXT(TODAY(),"rrrr"))),TEXT('Seznam účastníků'!B5,"dd.mm.rrrr")&amp;" - "&amp;TEXT('Seznam účastníků'!B6,"dd.mm.rrrr"),TEXT('Seznam účastníků'!B5,"dd.mm.yyyy")&amp;" - "&amp;TEXT('Seznam účastníků'!B6,"dd.mm.yyyy"))," ")</f>
-        <v>30.12.2009 - 02.01.2010</v>
-      </c>
-      <c r="C4" s="270"/>
-      <c r="D4" s="270"/>
-      <c r="E4" s="270"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C4" s="266"/>
+      <c r="D4" s="266"/>
+      <c r="E4" s="266"/>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="125"/>
-      <c r="B5" s="271" t="s">
+      <c r="B5" s="267" t="s">
         <v>166</v>
       </c>
-      <c r="C5" s="271"/>
-      <c r="D5" s="271"/>
+      <c r="C5" s="267"/>
+      <c r="D5" s="267"/>
       <c r="E5" s="126" t="s">
         <v>167</v>
       </c>
@@ -27794,13 +27761,13 @@
       <c r="E21" s="90"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="272" t="s">
+      <c r="A22" s="263" t="s">
         <v>178</v>
       </c>
-      <c r="B22" s="272"/>
-      <c r="C22" s="272"/>
-      <c r="D22" s="272"/>
-      <c r="E22" s="272"/>
+      <c r="B22" s="263"/>
+      <c r="C22" s="263"/>
+      <c r="D22" s="263"/>
+      <c r="E22" s="263"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="146" t="s">
@@ -27808,20 +27775,20 @@
       </c>
       <c r="B23" s="147">
         <f>'Seznam účastníků'!$B$6-'Seznam účastníků'!$B$5+1</f>
-        <v>4</v>
-      </c>
-      <c r="C23" s="267"/>
-      <c r="D23" s="267"/>
-      <c r="E23" s="267"/>
+        <v>1</v>
+      </c>
+      <c r="C23" s="270"/>
+      <c r="D23" s="270"/>
+      <c r="E23" s="270"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="135" t="s">
         <v>180</v>
       </c>
       <c r="B24" s="148"/>
-      <c r="C24" s="265"/>
-      <c r="D24" s="265"/>
-      <c r="E24" s="265"/>
+      <c r="C24" s="268"/>
+      <c r="D24" s="268"/>
+      <c r="E24" s="268"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="135" t="s">
@@ -27830,9 +27797,9 @@
       <c r="B25" s="149">
         <v>14</v>
       </c>
-      <c r="C25" s="265"/>
-      <c r="D25" s="265"/>
-      <c r="E25" s="265"/>
+      <c r="C25" s="268"/>
+      <c r="D25" s="268"/>
+      <c r="E25" s="268"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="135" t="s">
@@ -27841,9 +27808,9 @@
       <c r="B26" s="149">
         <v>1</v>
       </c>
-      <c r="C26" s="265"/>
-      <c r="D26" s="265"/>
-      <c r="E26" s="265"/>
+      <c r="C26" s="268"/>
+      <c r="D26" s="268"/>
+      <c r="E26" s="268"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="135" t="s">
@@ -27852,9 +27819,9 @@
       <c r="B27" s="149">
         <v>0</v>
       </c>
-      <c r="C27" s="265"/>
-      <c r="D27" s="265"/>
-      <c r="E27" s="265"/>
+      <c r="C27" s="268"/>
+      <c r="D27" s="268"/>
+      <c r="E27" s="268"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="135" t="s">
@@ -27863,9 +27830,9 @@
       <c r="B28" s="149">
         <v>0</v>
       </c>
-      <c r="C28" s="265"/>
-      <c r="D28" s="265"/>
-      <c r="E28" s="265"/>
+      <c r="C28" s="268"/>
+      <c r="D28" s="268"/>
+      <c r="E28" s="268"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="135" t="s">
@@ -27875,16 +27842,16 @@
         <f>SUM(B25:B28)</f>
         <v>15</v>
       </c>
-      <c r="C29" s="265"/>
-      <c r="D29" s="265"/>
-      <c r="E29" s="265"/>
+      <c r="C29" s="268"/>
+      <c r="D29" s="268"/>
+      <c r="E29" s="268"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="135"/>
       <c r="B30" s="151"/>
-      <c r="C30" s="265"/>
-      <c r="D30" s="265"/>
-      <c r="E30" s="265"/>
+      <c r="C30" s="268"/>
+      <c r="D30" s="268"/>
+      <c r="E30" s="268"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="135" t="s">
@@ -27893,9 +27860,9 @@
       <c r="B31" s="152">
         <v>160</v>
       </c>
-      <c r="C31" s="265"/>
-      <c r="D31" s="265"/>
-      <c r="E31" s="265"/>
+      <c r="C31" s="268"/>
+      <c r="D31" s="268"/>
+      <c r="E31" s="268"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="137" t="s">
@@ -27904,9 +27871,9 @@
       <c r="B32" s="153">
         <v>200</v>
       </c>
-      <c r="C32" s="266"/>
-      <c r="D32" s="266"/>
-      <c r="E32" s="266"/>
+      <c r="C32" s="269"/>
+      <c r="D32" s="269"/>
+      <c r="E32" s="269"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="90"/>
@@ -27948,12 +27915,6 @@
   </sheetData>
   <sheetProtection sheet="1"/>
   <mergeCells count="16">
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
@@ -27964,6 +27925,12 @@
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -27975,15 +27942,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="A19:G33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="156" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="156" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="156" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="284" customWidth="1"/>
     <col min="4" max="4" width="20.140625" style="156" customWidth="1"/>
     <col min="5" max="5" width="10.140625" style="156" customWidth="1"/>
     <col min="6" max="6" width="9" style="156"/>
@@ -27996,139 +27961,144 @@
       <c r="A1" s="158" t="s">
         <v>191</v>
       </c>
+      <c r="C1" s="156"/>
       <c r="G1" s="159"/>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="160" t="s">
         <v>192</v>
       </c>
+      <c r="C2" s="156"/>
       <c r="G2" s="159"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="161"/>
+      <c r="C3" s="156"/>
       <c r="G3" s="159"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="156" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="273" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" s="273"/>
+      <c r="B4" s="271"/>
+      <c r="C4" s="271"/>
       <c r="D4"/>
       <c r="G4" s="159"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="156" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="274">
-        <v>40177</v>
-      </c>
-      <c r="C5" s="274"/>
+        <v>194</v>
+      </c>
+      <c r="B5" s="285"/>
+      <c r="C5" s="285"/>
       <c r="D5"/>
       <c r="G5" s="159"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="156" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" s="274">
-        <v>40180</v>
-      </c>
-      <c r="C6" s="274"/>
+        <v>195</v>
+      </c>
+      <c r="B6" s="285"/>
+      <c r="C6" s="285"/>
       <c r="D6"/>
       <c r="G6" s="159"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="156" t="s">
-        <v>197</v>
-      </c>
-      <c r="B7" s="273" t="s">
-        <v>198</v>
-      </c>
-      <c r="C7" s="273"/>
+        <v>196</v>
+      </c>
+      <c r="B7" s="271"/>
+      <c r="C7" s="271"/>
       <c r="D7"/>
       <c r="G7" s="159"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="156"/>
       <c r="G8" s="159"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="156" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B9" s="162">
         <f>SUMPRODUCT((C19:C100&gt;DATE(YEAR(B5)-15,MONTH(B5),DAY(B5)))*ISNUMBER(C19:C100))</f>
         <v>0</v>
       </c>
+      <c r="C9" s="156"/>
       <c r="G9" s="159"/>
       <c r="H9" s="163"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="156" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B10" s="162">
         <f>SUMPRODUCT((C19:C100&lt;=DATE(YEAR(B5)-15,MONTH(B5),DAY(B5)))*ISNUMBER(C19:C100)*(C19:C100&gt;DATE(YEAR(B5)-18,MONTH(B5),DAY(B5))))</f>
         <v>0</v>
       </c>
+      <c r="C10" s="156"/>
       <c r="G10" s="159"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="156" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B11" s="162">
         <f>SUMPRODUCT((C19:C100&lt;=DATE(YEAR(B5)-18,MONTH(B5),DAY(B5)))*ISNUMBER(C19:C100)*(C19:C100&gt;DATE(YEAR(B5)-26,MONTH(B5),DAY(B5))))</f>
         <v>0</v>
       </c>
+      <c r="C11" s="156"/>
       <c r="G11" s="159"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="164" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B12" s="165">
         <f>SUMPRODUCT((C19:C100&lt;=DATE(YEAR(B5)-26,MONTH(B5),DAY(B5)))*ISNUMBER(C19:C100))</f>
         <v>0</v>
       </c>
+      <c r="C12" s="156"/>
       <c r="G12" s="159"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="166" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B13" s="167">
         <f>SUM(B9:B12)</f>
         <v>0</v>
       </c>
+      <c r="C13" s="156"/>
       <c r="G13" s="159"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="166" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B14" s="162">
         <f>'Přehled o vybraných poplatcích'!D49</f>
         <v>0</v>
       </c>
+      <c r="C14" s="156"/>
       <c r="G14" s="159"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="168"/>
+      <c r="C15" s="156"/>
       <c r="G15" s="159"/>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="275" t="s">
-        <v>205</v>
-      </c>
-      <c r="B16" s="275"/>
+      <c r="A16" s="272" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="272"/>
+      <c r="C16" s="156"/>
       <c r="G16" s="159"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="168"/>
+      <c r="C17" s="156"/>
       <c r="G17" s="159"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -28139,7 +28109,7 @@
         <v>66</v>
       </c>
       <c r="C18" s="169" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D18" s="169" t="s">
         <v>68</v>
@@ -28148,479 +28118,479 @@
         <v>69</v>
       </c>
       <c r="F18" s="169" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G18" s="170" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="171"/>
       <c r="B19" s="172"/>
-      <c r="C19" s="173"/>
+      <c r="C19" s="280"/>
       <c r="D19" s="172"/>
       <c r="E19" s="172"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="175"/>
-      <c r="H19" s="176"/>
+      <c r="F19" s="173"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="175"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="171"/>
-      <c r="B20" s="177"/>
-      <c r="C20" s="173"/>
-      <c r="D20" s="177"/>
+      <c r="B20" s="176"/>
+      <c r="C20" s="280"/>
+      <c r="D20" s="176"/>
       <c r="E20" s="172"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="175"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="174"/>
       <c r="I20"/>
       <c r="J20"/>
-      <c r="K20" s="178"/>
+      <c r="K20" s="177"/>
       <c r="L20"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="171"/>
       <c r="B21" s="172"/>
-      <c r="C21" s="173"/>
+      <c r="C21" s="280"/>
       <c r="D21" s="172"/>
       <c r="E21" s="172"/>
-      <c r="F21" s="174"/>
-      <c r="G21" s="175"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="174"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="171"/>
-      <c r="B22" s="177"/>
-      <c r="C22" s="173"/>
-      <c r="D22" s="177"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="280"/>
+      <c r="D22" s="176"/>
       <c r="E22" s="172"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="175"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="174"/>
       <c r="I22"/>
       <c r="J22"/>
-      <c r="K22" s="176"/>
+      <c r="K22" s="175"/>
       <c r="L22"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="171"/>
-      <c r="B23" s="179"/>
-      <c r="C23" s="173"/>
-      <c r="D23" s="179"/>
+      <c r="B23" s="178"/>
+      <c r="C23" s="280"/>
+      <c r="D23" s="178"/>
       <c r="E23" s="172"/>
-      <c r="F23" s="174"/>
-      <c r="G23" s="175"/>
+      <c r="F23" s="173"/>
+      <c r="G23" s="174"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="171"/>
       <c r="B24" s="172"/>
-      <c r="C24" s="173"/>
+      <c r="C24" s="280"/>
       <c r="D24" s="172"/>
       <c r="E24" s="172"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="175"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="174"/>
       <c r="I24"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="171"/>
-      <c r="B25" s="180"/>
-      <c r="C25" s="173"/>
-      <c r="D25" s="180"/>
+      <c r="B25" s="179"/>
+      <c r="C25" s="280"/>
+      <c r="D25" s="179"/>
       <c r="E25" s="172"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="175"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="174"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="171"/>
-      <c r="B26" s="177"/>
-      <c r="C26" s="173"/>
-      <c r="D26" s="177"/>
+      <c r="B26" s="176"/>
+      <c r="C26" s="280"/>
+      <c r="D26" s="176"/>
       <c r="E26" s="172"/>
-      <c r="F26" s="174"/>
-      <c r="G26" s="175"/>
+      <c r="F26" s="173"/>
+      <c r="G26" s="174"/>
       <c r="I26"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="171"/>
       <c r="B27" s="172"/>
-      <c r="C27" s="173"/>
+      <c r="C27" s="280"/>
       <c r="D27" s="172"/>
       <c r="E27" s="172"/>
-      <c r="F27" s="174"/>
-      <c r="G27" s="175"/>
+      <c r="F27" s="173"/>
+      <c r="G27" s="174"/>
       <c r="I27"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="171"/>
-      <c r="B28" s="179"/>
-      <c r="C28" s="173"/>
-      <c r="D28" s="179"/>
+      <c r="B28" s="178"/>
+      <c r="C28" s="280"/>
+      <c r="D28" s="178"/>
       <c r="E28" s="172"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="175"/>
+      <c r="F28" s="173"/>
+      <c r="G28" s="174"/>
       <c r="H28"/>
       <c r="I28"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="171"/>
-      <c r="B29" s="179"/>
-      <c r="C29" s="173"/>
-      <c r="D29" s="179"/>
+      <c r="B29" s="178"/>
+      <c r="C29" s="280"/>
+      <c r="D29" s="178"/>
       <c r="E29" s="172"/>
-      <c r="F29" s="174"/>
-      <c r="G29" s="175"/>
+      <c r="F29" s="173"/>
+      <c r="G29" s="174"/>
       <c r="H29"/>
       <c r="I29"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="171"/>
-      <c r="B30" s="179"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="179"/>
+      <c r="B30" s="178"/>
+      <c r="C30" s="280"/>
+      <c r="D30" s="178"/>
       <c r="E30" s="172"/>
-      <c r="F30" s="174"/>
-      <c r="G30" s="175"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="174"/>
       <c r="H30"/>
       <c r="I30"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="181"/>
-      <c r="B31" s="179"/>
-      <c r="C31" s="173"/>
-      <c r="D31" s="179"/>
+      <c r="A31" s="180"/>
+      <c r="B31" s="178"/>
+      <c r="C31" s="280"/>
+      <c r="D31" s="178"/>
       <c r="E31" s="172"/>
-      <c r="F31" s="174"/>
-      <c r="G31" s="175"/>
+      <c r="F31" s="173"/>
+      <c r="G31" s="174"/>
       <c r="H31"/>
       <c r="I31"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="157"/>
-      <c r="B32" s="179"/>
-      <c r="C32" s="173"/>
+      <c r="B32" s="178"/>
+      <c r="C32" s="280"/>
       <c r="D32" s="171"/>
       <c r="E32" s="172"/>
-      <c r="F32" s="174"/>
-      <c r="G32" s="175"/>
+      <c r="F32" s="173"/>
+      <c r="G32" s="174"/>
       <c r="H32"/>
       <c r="I32"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="157"/>
-      <c r="B33" s="179"/>
-      <c r="C33" s="182"/>
-      <c r="D33" s="179"/>
+      <c r="B33" s="178"/>
+      <c r="C33" s="281"/>
+      <c r="D33" s="178"/>
       <c r="E33" s="172"/>
-      <c r="F33" s="174"/>
-      <c r="G33" s="175"/>
+      <c r="F33" s="173"/>
+      <c r="G33" s="174"/>
       <c r="H33"/>
       <c r="I33"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="157"/>
-      <c r="B34" s="179"/>
-      <c r="C34" s="179"/>
+      <c r="B34" s="178"/>
+      <c r="C34" s="282"/>
       <c r="D34" s="171"/>
       <c r="E34" s="171"/>
-      <c r="F34" s="174"/>
-      <c r="G34" s="175"/>
+      <c r="F34" s="173"/>
+      <c r="G34" s="174"/>
       <c r="H34"/>
       <c r="I34"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="157"/>
       <c r="B35" s="157"/>
-      <c r="C35" s="157"/>
+      <c r="C35" s="283"/>
       <c r="D35" s="171"/>
       <c r="E35" s="171"/>
-      <c r="F35" s="174"/>
-      <c r="G35" s="175"/>
+      <c r="F35" s="173"/>
+      <c r="G35" s="174"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="157"/>
       <c r="B36" s="157"/>
-      <c r="C36" s="157"/>
+      <c r="C36" s="283"/>
       <c r="D36" s="171"/>
       <c r="E36" s="171"/>
-      <c r="F36" s="174"/>
-      <c r="G36" s="175"/>
+      <c r="F36" s="173"/>
+      <c r="G36" s="174"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="157"/>
       <c r="B37" s="157"/>
-      <c r="C37" s="157"/>
+      <c r="C37" s="283"/>
       <c r="D37" s="157"/>
-      <c r="E37" s="183"/>
-      <c r="F37" s="174"/>
-      <c r="G37" s="175"/>
+      <c r="E37" s="181"/>
+      <c r="F37" s="173"/>
+      <c r="G37" s="174"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="157"/>
       <c r="B38" s="157"/>
-      <c r="C38" s="157"/>
+      <c r="C38" s="283"/>
       <c r="D38" s="157"/>
-      <c r="E38" s="183"/>
-      <c r="F38" s="174"/>
-      <c r="G38" s="175"/>
+      <c r="E38" s="181"/>
+      <c r="F38" s="173"/>
+      <c r="G38" s="174"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="157"/>
       <c r="B39" s="157"/>
-      <c r="C39" s="157"/>
+      <c r="C39" s="283"/>
       <c r="D39" s="157"/>
-      <c r="E39" s="183"/>
-      <c r="F39" s="174"/>
-      <c r="G39" s="175"/>
+      <c r="E39" s="181"/>
+      <c r="F39" s="173"/>
+      <c r="G39" s="174"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="157"/>
       <c r="B40" s="157"/>
-      <c r="C40" s="157"/>
+      <c r="C40" s="283"/>
       <c r="D40" s="157"/>
-      <c r="E40" s="183"/>
-      <c r="F40" s="174"/>
-      <c r="G40" s="175"/>
+      <c r="E40" s="181"/>
+      <c r="F40" s="173"/>
+      <c r="G40" s="174"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="157"/>
       <c r="B41" s="157"/>
-      <c r="C41" s="157"/>
+      <c r="C41" s="283"/>
       <c r="D41" s="157"/>
-      <c r="E41" s="183"/>
-      <c r="F41" s="174"/>
-      <c r="G41" s="175"/>
+      <c r="E41" s="181"/>
+      <c r="F41" s="173"/>
+      <c r="G41" s="174"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="157"/>
       <c r="B42" s="157"/>
-      <c r="C42" s="157"/>
+      <c r="C42" s="283"/>
       <c r="D42" s="157"/>
-      <c r="E42" s="183"/>
-      <c r="F42" s="174"/>
-      <c r="G42" s="175"/>
+      <c r="E42" s="181"/>
+      <c r="F42" s="173"/>
+      <c r="G42" s="174"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="157"/>
       <c r="B43" s="157"/>
-      <c r="C43" s="157"/>
+      <c r="C43" s="283"/>
       <c r="D43" s="157"/>
-      <c r="E43" s="183"/>
-      <c r="F43" s="174"/>
-      <c r="G43" s="175"/>
+      <c r="E43" s="181"/>
+      <c r="F43" s="173"/>
+      <c r="G43" s="174"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="157"/>
       <c r="B44" s="157"/>
-      <c r="C44" s="157"/>
+      <c r="C44" s="283"/>
       <c r="D44" s="157"/>
       <c r="E44" s="157"/>
-      <c r="F44" s="174"/>
-      <c r="G44" s="175"/>
+      <c r="F44" s="173"/>
+      <c r="G44" s="174"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="157"/>
       <c r="B45" s="157"/>
-      <c r="C45" s="157"/>
+      <c r="C45" s="283"/>
       <c r="D45" s="157"/>
       <c r="E45" s="157"/>
-      <c r="F45" s="174"/>
-      <c r="G45" s="175"/>
+      <c r="F45" s="173"/>
+      <c r="G45" s="174"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="157"/>
       <c r="B46" s="157"/>
-      <c r="C46" s="157"/>
+      <c r="C46" s="283"/>
       <c r="D46" s="157"/>
       <c r="E46" s="157"/>
-      <c r="F46" s="174"/>
-      <c r="G46" s="175"/>
+      <c r="F46" s="173"/>
+      <c r="G46" s="174"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="157"/>
       <c r="B47" s="157"/>
-      <c r="C47" s="157"/>
+      <c r="C47" s="283"/>
       <c r="D47" s="157"/>
       <c r="E47" s="157"/>
-      <c r="F47" s="174"/>
-      <c r="G47" s="175"/>
+      <c r="F47" s="173"/>
+      <c r="G47" s="174"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="157"/>
       <c r="B48" s="157"/>
-      <c r="C48" s="157"/>
+      <c r="C48" s="283"/>
       <c r="D48" s="157"/>
       <c r="E48" s="157"/>
-      <c r="F48" s="174"/>
+      <c r="F48" s="173"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="157"/>
       <c r="B49" s="157"/>
-      <c r="C49" s="157"/>
+      <c r="C49" s="283"/>
       <c r="D49" s="157"/>
       <c r="E49" s="157"/>
-      <c r="F49" s="174"/>
+      <c r="F49" s="173"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="157"/>
       <c r="B50" s="157"/>
-      <c r="C50" s="157"/>
+      <c r="C50" s="283"/>
       <c r="D50" s="157"/>
       <c r="E50" s="157"/>
-      <c r="F50" s="174"/>
+      <c r="F50" s="173"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="157"/>
       <c r="B51" s="157"/>
-      <c r="C51" s="157"/>
+      <c r="C51" s="283"/>
       <c r="D51" s="157"/>
       <c r="E51" s="157"/>
-      <c r="F51" s="174"/>
+      <c r="F51" s="173"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="157"/>
       <c r="B52" s="157"/>
-      <c r="C52" s="157"/>
+      <c r="C52" s="283"/>
       <c r="D52" s="157"/>
       <c r="E52" s="157"/>
-      <c r="F52" s="174"/>
+      <c r="F52" s="173"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="157"/>
       <c r="B53" s="157"/>
-      <c r="C53" s="157"/>
+      <c r="C53" s="283"/>
       <c r="D53" s="157"/>
       <c r="E53" s="157"/>
-      <c r="F53" s="174"/>
+      <c r="F53" s="173"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="157"/>
       <c r="B54" s="157"/>
-      <c r="C54" s="157"/>
+      <c r="C54" s="283"/>
       <c r="D54" s="157"/>
       <c r="E54" s="157"/>
-      <c r="F54" s="174"/>
+      <c r="F54" s="173"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="157"/>
       <c r="B55" s="157"/>
-      <c r="C55" s="157"/>
+      <c r="C55" s="283"/>
       <c r="D55" s="157"/>
       <c r="E55" s="157"/>
-      <c r="F55" s="174"/>
+      <c r="F55" s="173"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="157"/>
       <c r="B56" s="157"/>
-      <c r="C56" s="157"/>
+      <c r="C56" s="283"/>
       <c r="D56" s="157"/>
       <c r="E56" s="157"/>
-      <c r="F56" s="174"/>
+      <c r="F56" s="173"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="157"/>
       <c r="B57" s="157"/>
-      <c r="C57" s="157"/>
+      <c r="C57" s="283"/>
       <c r="D57" s="157"/>
       <c r="E57" s="157"/>
-      <c r="F57" s="174"/>
+      <c r="F57" s="173"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="157"/>
       <c r="B58" s="157"/>
-      <c r="C58" s="157"/>
+      <c r="C58" s="283"/>
       <c r="D58" s="157"/>
       <c r="E58" s="157"/>
-      <c r="F58" s="174"/>
+      <c r="F58" s="173"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="157"/>
       <c r="B59" s="157"/>
-      <c r="C59" s="157"/>
+      <c r="C59" s="283"/>
       <c r="D59" s="157"/>
       <c r="E59" s="157"/>
-      <c r="F59" s="174"/>
+      <c r="F59" s="173"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="157"/>
       <c r="B60" s="157"/>
-      <c r="C60" s="157"/>
+      <c r="C60" s="283"/>
       <c r="D60" s="157"/>
       <c r="E60" s="157"/>
-      <c r="F60" s="174"/>
+      <c r="F60" s="173"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="157"/>
       <c r="B61" s="157"/>
-      <c r="C61" s="157"/>
+      <c r="C61" s="283"/>
       <c r="D61" s="157"/>
       <c r="E61" s="157"/>
-      <c r="F61" s="174"/>
+      <c r="F61" s="173"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="157"/>
       <c r="B62" s="157"/>
-      <c r="C62" s="157"/>
+      <c r="C62" s="283"/>
       <c r="D62" s="157"/>
       <c r="E62" s="157"/>
-      <c r="F62" s="174"/>
+      <c r="F62" s="173"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="157"/>
       <c r="B63" s="157"/>
-      <c r="C63" s="157"/>
+      <c r="C63" s="283"/>
       <c r="D63" s="157"/>
       <c r="E63" s="157"/>
-      <c r="F63" s="174"/>
+      <c r="F63" s="173"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="157"/>
       <c r="B64" s="157"/>
-      <c r="C64" s="157"/>
+      <c r="C64" s="283"/>
       <c r="D64" s="157"/>
       <c r="E64" s="157"/>
-      <c r="F64" s="174"/>
+      <c r="F64" s="173"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="157"/>
       <c r="B65" s="157"/>
-      <c r="C65" s="157"/>
+      <c r="C65" s="283"/>
       <c r="D65" s="157"/>
       <c r="E65" s="157"/>
-      <c r="F65" s="174"/>
+      <c r="F65" s="173"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="157"/>
       <c r="B66" s="157"/>
-      <c r="C66" s="157"/>
+      <c r="C66" s="283"/>
       <c r="D66" s="157"/>
       <c r="E66" s="157"/>
-      <c r="F66" s="174"/>
+      <c r="F66" s="173"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="157"/>
       <c r="B67" s="157"/>
-      <c r="C67" s="157"/>
+      <c r="C67" s="283"/>
       <c r="D67" s="157"/>
       <c r="E67" s="157"/>
-      <c r="F67" s="174"/>
+      <c r="F67" s="173"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="157"/>
       <c r="B68" s="157"/>
-      <c r="C68" s="157"/>
+      <c r="C68" s="283"/>
       <c r="D68" s="157"/>
       <c r="E68" s="157"/>
-      <c r="F68" s="174"/>
+      <c r="F68" s="173"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="157"/>
       <c r="B69" s="157"/>
-      <c r="C69" s="157"/>
+      <c r="C69" s="283"/>
       <c r="D69" s="157"/>
       <c r="E69" s="157"/>
-      <c r="F69" s="174"/>
+      <c r="F69" s="173"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="157"/>
       <c r="B70" s="157"/>
-      <c r="C70" s="157"/>
+      <c r="C70" s="283"/>
       <c r="D70" s="157"/>
       <c r="E70" s="157"/>
       <c r="F70" s="157"/>
@@ -28628,7 +28598,7 @@
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="157"/>
       <c r="B71" s="157"/>
-      <c r="C71" s="157"/>
+      <c r="C71" s="283"/>
       <c r="D71" s="157"/>
       <c r="E71" s="157"/>
       <c r="F71" s="157"/>
@@ -28636,7 +28606,7 @@
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="157"/>
       <c r="B72" s="157"/>
-      <c r="C72" s="157"/>
+      <c r="C72" s="283"/>
       <c r="D72" s="157"/>
       <c r="E72" s="157"/>
       <c r="F72" s="157"/>
@@ -28644,7 +28614,7 @@
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="157"/>
       <c r="B73" s="157"/>
-      <c r="C73" s="157"/>
+      <c r="C73" s="283"/>
       <c r="D73" s="157"/>
       <c r="E73" s="157"/>
       <c r="F73" s="157"/>
@@ -28652,7 +28622,7 @@
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="157"/>
       <c r="B74" s="157"/>
-      <c r="C74" s="157"/>
+      <c r="C74" s="283"/>
       <c r="D74" s="157"/>
       <c r="E74" s="157"/>
       <c r="F74" s="157"/>
@@ -28660,7 +28630,7 @@
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="157"/>
       <c r="B75" s="157"/>
-      <c r="C75" s="157"/>
+      <c r="C75" s="283"/>
       <c r="D75" s="157"/>
       <c r="E75" s="157"/>
       <c r="F75" s="157"/>
@@ -28668,7 +28638,7 @@
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="157"/>
       <c r="B76" s="157"/>
-      <c r="C76" s="157"/>
+      <c r="C76" s="283"/>
       <c r="D76" s="157"/>
       <c r="E76" s="157"/>
       <c r="F76" s="157"/>
@@ -28676,7 +28646,7 @@
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="157"/>
       <c r="B77" s="157"/>
-      <c r="C77" s="157"/>
+      <c r="C77" s="283"/>
       <c r="D77" s="157"/>
       <c r="E77" s="157"/>
       <c r="F77" s="157"/>
@@ -28684,7 +28654,7 @@
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="157"/>
       <c r="B78" s="157"/>
-      <c r="C78" s="157"/>
+      <c r="C78" s="283"/>
       <c r="D78" s="157"/>
       <c r="E78" s="157"/>
       <c r="F78" s="157"/>
@@ -28692,7 +28662,7 @@
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="157"/>
       <c r="B79" s="157"/>
-      <c r="C79" s="157"/>
+      <c r="C79" s="283"/>
       <c r="D79" s="157"/>
       <c r="E79" s="157"/>
       <c r="F79" s="157"/>
@@ -28700,7 +28670,7 @@
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="157"/>
       <c r="B80" s="157"/>
-      <c r="C80" s="157"/>
+      <c r="C80" s="283"/>
       <c r="D80" s="157"/>
       <c r="E80" s="157"/>
       <c r="F80" s="157"/>
@@ -28708,7 +28678,7 @@
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="157"/>
       <c r="B81" s="157"/>
-      <c r="C81" s="157"/>
+      <c r="C81" s="283"/>
       <c r="D81" s="157"/>
       <c r="E81" s="157"/>
       <c r="F81" s="157"/>
@@ -28716,7 +28686,7 @@
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="157"/>
       <c r="B82" s="157"/>
-      <c r="C82" s="157"/>
+      <c r="C82" s="283"/>
       <c r="D82" s="157"/>
       <c r="E82" s="157"/>
       <c r="F82" s="157"/>
@@ -28724,7 +28694,7 @@
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="157"/>
       <c r="B83" s="157"/>
-      <c r="C83" s="157"/>
+      <c r="C83" s="283"/>
       <c r="D83" s="157"/>
       <c r="E83" s="157"/>
       <c r="F83" s="157"/>
@@ -28732,7 +28702,7 @@
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="157"/>
       <c r="B84" s="157"/>
-      <c r="C84" s="157"/>
+      <c r="C84" s="283"/>
       <c r="D84" s="157"/>
       <c r="E84" s="157"/>
       <c r="F84" s="157"/>
@@ -28740,7 +28710,7 @@
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="157"/>
       <c r="B85" s="157"/>
-      <c r="C85" s="157"/>
+      <c r="C85" s="283"/>
       <c r="D85" s="157"/>
       <c r="E85" s="157"/>
       <c r="F85" s="157"/>
@@ -28748,7 +28718,7 @@
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="157"/>
       <c r="B86" s="157"/>
-      <c r="C86" s="157"/>
+      <c r="C86" s="283"/>
       <c r="D86" s="157"/>
       <c r="E86" s="157"/>
       <c r="F86" s="157"/>
@@ -28756,7 +28726,7 @@
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="157"/>
       <c r="B87" s="157"/>
-      <c r="C87" s="157"/>
+      <c r="C87" s="283"/>
       <c r="D87" s="157"/>
       <c r="E87" s="157"/>
       <c r="F87" s="157"/>
@@ -28764,7 +28734,7 @@
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="157"/>
       <c r="B88" s="157"/>
-      <c r="C88" s="157"/>
+      <c r="C88" s="283"/>
       <c r="D88" s="157"/>
       <c r="E88" s="157"/>
       <c r="F88" s="157"/>
@@ -28772,7 +28742,7 @@
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="157"/>
       <c r="B89" s="157"/>
-      <c r="C89" s="157"/>
+      <c r="C89" s="283"/>
       <c r="D89" s="157"/>
       <c r="E89" s="157"/>
       <c r="F89" s="157"/>
@@ -28780,7 +28750,7 @@
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="157"/>
       <c r="B90" s="157"/>
-      <c r="C90" s="157"/>
+      <c r="C90" s="283"/>
       <c r="D90" s="157"/>
       <c r="E90" s="157"/>
       <c r="F90" s="157"/>
@@ -28788,7 +28758,7 @@
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="157"/>
       <c r="B91" s="157"/>
-      <c r="C91" s="157"/>
+      <c r="C91" s="283"/>
       <c r="D91" s="157"/>
       <c r="E91" s="157"/>
       <c r="F91" s="157"/>
@@ -28796,7 +28766,7 @@
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="157"/>
       <c r="B92" s="157"/>
-      <c r="C92" s="157"/>
+      <c r="C92" s="283"/>
       <c r="D92" s="157"/>
       <c r="E92" s="157"/>
       <c r="F92" s="157"/>
@@ -28804,7 +28774,7 @@
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="157"/>
       <c r="B93" s="157"/>
-      <c r="C93" s="157"/>
+      <c r="C93" s="283"/>
       <c r="D93" s="157"/>
       <c r="E93" s="157"/>
       <c r="F93" s="157"/>
@@ -28812,7 +28782,7 @@
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="157"/>
       <c r="B94" s="157"/>
-      <c r="C94" s="157"/>
+      <c r="C94" s="283"/>
       <c r="D94" s="157"/>
       <c r="E94" s="157"/>
       <c r="F94" s="157"/>
@@ -28820,7 +28790,7 @@
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="157"/>
       <c r="B95" s="157"/>
-      <c r="C95" s="157"/>
+      <c r="C95" s="283"/>
       <c r="D95" s="157"/>
       <c r="E95" s="157"/>
       <c r="F95" s="157"/>
@@ -28828,7 +28798,7 @@
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="157"/>
       <c r="B96" s="157"/>
-      <c r="C96" s="157"/>
+      <c r="C96" s="283"/>
       <c r="D96" s="157"/>
       <c r="E96" s="157"/>
       <c r="F96" s="157"/>
@@ -28836,7 +28806,7 @@
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="157"/>
       <c r="B97" s="157"/>
-      <c r="C97" s="157"/>
+      <c r="C97" s="283"/>
       <c r="D97" s="157"/>
       <c r="E97" s="157"/>
       <c r="F97" s="157"/>
@@ -28844,7 +28814,7 @@
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="157"/>
       <c r="B98" s="157"/>
-      <c r="C98" s="157"/>
+      <c r="C98" s="283"/>
       <c r="D98" s="157"/>
       <c r="E98" s="157"/>
       <c r="F98" s="157"/>
@@ -28852,7 +28822,7 @@
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="157"/>
       <c r="B99" s="157"/>
-      <c r="C99" s="157"/>
+      <c r="C99" s="283"/>
       <c r="D99" s="157"/>
       <c r="E99" s="157"/>
       <c r="F99" s="157"/>
@@ -28897,7 +28867,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="184" t="str">
+      <c r="A2" s="182" t="str">
         <f>'Seznam účastníků'!A2</f>
         <v>Neočekávaný dýchánek</v>
       </c>
@@ -28906,916 +28876,916 @@
       <c r="A4" s="156" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="276" t="str">
+      <c r="B4" s="273">
         <f>'Seznam účastníků'!B4</f>
-        <v>Dno pytle</v>
-      </c>
-      <c r="C4" s="276"/>
+        <v>0</v>
+      </c>
+      <c r="C4" s="273"/>
       <c r="D4"/>
       <c r="E4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="156" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="277">
+        <v>194</v>
+      </c>
+      <c r="B5" s="274">
         <f>'Seznam účastníků'!B5</f>
-        <v>40177</v>
-      </c>
-      <c r="C5" s="277"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="274"/>
       <c r="D5"/>
       <c r="E5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="156" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" s="277">
+        <v>195</v>
+      </c>
+      <c r="B6" s="274">
         <f>'Seznam účastníků'!B6</f>
-        <v>40180</v>
-      </c>
-      <c r="C6" s="277"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="274"/>
       <c r="D6"/>
       <c r="E6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="156" t="s">
-        <v>197</v>
-      </c>
-      <c r="B7" s="276" t="str">
+        <v>196</v>
+      </c>
+      <c r="B7" s="273">
         <f>'Seznam účastníků'!B7</f>
-        <v>Gandalf Šedý</v>
-      </c>
-      <c r="C7" s="276"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="273"/>
       <c r="D7"/>
       <c r="E7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="156" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="184" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="184" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="184" t="s">
+        <v>208</v>
+      </c>
+      <c r="E11" s="184" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="186" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="186" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="186" t="s">
+      <c r="G11" s="184" t="s">
         <v>210</v>
       </c>
-      <c r="E11" s="186" t="s">
-        <v>211</v>
-      </c>
-      <c r="G11" s="186" t="s">
-        <v>212</v>
-      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="187" t="str">
+      <c r="B12" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A19)),'Seznam účastníků'!A19,"")</f>
         <v/>
       </c>
-      <c r="C12" s="187" t="str">
+      <c r="C12" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B19)),'Seznam účastníků'!B19,"")</f>
         <v/>
       </c>
-      <c r="D12" s="188" t="str">
+      <c r="D12" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B19)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E12" s="189" t="str">
+      <c r="E12" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B19)),IF(ISNUMBER(G12),D12*G12,G12),"")</f>
         <v/>
       </c>
       <c r="F12"/>
-      <c r="G12" s="189" t="str">
+      <c r="G12" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G19)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G19)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G19)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G19)="h",0,IF(LOWER('Seznam účastníků'!G19)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G19),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
       <c r="H12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="187" t="str">
+      <c r="B13" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A20)),'Seznam účastníků'!A20,"")</f>
         <v/>
       </c>
-      <c r="C13" s="187" t="str">
+      <c r="C13" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B20)),'Seznam účastníků'!B20,"")</f>
         <v/>
       </c>
-      <c r="D13" s="188" t="str">
+      <c r="D13" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B20)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E13" s="189" t="str">
+      <c r="E13" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B20)),IF(ISNUMBER(G13),D13*G13,G13),"")</f>
         <v/>
       </c>
       <c r="F13"/>
-      <c r="G13" s="189" t="str">
+      <c r="G13" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G20)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G20)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G20)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G20)="h",0,IF(LOWER('Seznam účastníků'!G20)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G20),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="187" t="str">
+      <c r="B14" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A21)),'Seznam účastníků'!A21,"")</f>
         <v/>
       </c>
-      <c r="C14" s="187" t="str">
+      <c r="C14" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B21)),'Seznam účastníků'!B21,"")</f>
         <v/>
       </c>
-      <c r="D14" s="188" t="str">
+      <c r="D14" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B21)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E14" s="189" t="str">
+      <c r="E14" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B21)),IF(ISNUMBER(G14),D14*G14,G14),"")</f>
         <v/>
       </c>
       <c r="F14"/>
-      <c r="G14" s="189" t="str">
+      <c r="G14" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G21)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G21)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G21)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G21)="h",0,IF(LOWER('Seznam účastníků'!G21)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G21),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="187" t="str">
+      <c r="B15" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A22)),'Seznam účastníků'!A22,"")</f>
         <v/>
       </c>
-      <c r="C15" s="187" t="str">
+      <c r="C15" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B22)),'Seznam účastníků'!B22,"")</f>
         <v/>
       </c>
-      <c r="D15" s="188" t="str">
+      <c r="D15" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B22)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E15" s="189" t="str">
+      <c r="E15" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B22)),IF(ISNUMBER(G15),D15*G15,G15),"")</f>
         <v/>
       </c>
       <c r="F15"/>
-      <c r="G15" s="189" t="str">
+      <c r="G15" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G22)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G22)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G22)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G22)="h",0,IF(LOWER('Seznam účastníků'!G22)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G22),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="187" t="str">
+      <c r="B16" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A23)),'Seznam účastníků'!A23,"")</f>
         <v/>
       </c>
-      <c r="C16" s="187" t="str">
+      <c r="C16" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B23)),'Seznam účastníků'!B23,"")</f>
         <v/>
       </c>
-      <c r="D16" s="188" t="str">
+      <c r="D16" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B23)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E16" s="189" t="str">
+      <c r="E16" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B23)),IF(ISNUMBER(G16),D16*G16,G16),"")</f>
         <v/>
       </c>
       <c r="F16"/>
-      <c r="G16" s="189" t="str">
+      <c r="G16" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G23)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G23)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G23)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G23)="h",0,IF(LOWER('Seznam účastníků'!G23)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G23),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="187" t="str">
+      <c r="B17" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A24)),'Seznam účastníků'!A24,"")</f>
         <v/>
       </c>
-      <c r="C17" s="187" t="str">
+      <c r="C17" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B24)),'Seznam účastníků'!B24,"")</f>
         <v/>
       </c>
-      <c r="D17" s="188" t="str">
+      <c r="D17" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B24)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E17" s="189" t="str">
+      <c r="E17" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B24)),IF(ISNUMBER(G17),D17*G17,G17),"")</f>
         <v/>
       </c>
       <c r="F17"/>
-      <c r="G17" s="189" t="str">
+      <c r="G17" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G24)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G24)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G24)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G24)="h",0,IF(LOWER('Seznam účastníků'!G24)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G24),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="187" t="str">
+      <c r="B18" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A25)),'Seznam účastníků'!A25,"")</f>
         <v/>
       </c>
-      <c r="C18" s="187" t="str">
+      <c r="C18" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B25)),'Seznam účastníků'!B25,"")</f>
         <v/>
       </c>
-      <c r="D18" s="188" t="str">
+      <c r="D18" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B25)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E18" s="189" t="str">
+      <c r="E18" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B25)),IF(ISNUMBER(G18),D18*G18,G18),"")</f>
         <v/>
       </c>
       <c r="F18"/>
-      <c r="G18" s="189" t="str">
+      <c r="G18" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G25)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G25)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G25)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G25)="h",0,IF(LOWER('Seznam účastníků'!G25)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G25),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="187" t="str">
+      <c r="B19" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A26)),'Seznam účastníků'!A26,"")</f>
         <v/>
       </c>
-      <c r="C19" s="187" t="str">
+      <c r="C19" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B26)),'Seznam účastníků'!B26,"")</f>
         <v/>
       </c>
-      <c r="D19" s="188" t="str">
+      <c r="D19" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B26)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E19" s="189" t="str">
+      <c r="E19" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B26)),IF(ISNUMBER(G19),D19*G19,G19),"")</f>
         <v/>
       </c>
       <c r="F19"/>
-      <c r="G19" s="189" t="str">
+      <c r="G19" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G26)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G26)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G26)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G26)="h",0,IF(LOWER('Seznam účastníků'!G26)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G26),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="187" t="str">
+      <c r="B20" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A27)),'Seznam účastníků'!A27,"")</f>
         <v/>
       </c>
-      <c r="C20" s="187" t="str">
+      <c r="C20" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B27)),'Seznam účastníků'!B27,"")</f>
         <v/>
       </c>
-      <c r="D20" s="188" t="str">
+      <c r="D20" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B27)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E20" s="189" t="str">
+      <c r="E20" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B27)),IF(ISNUMBER(G20),D20*G20,G20),"")</f>
         <v/>
       </c>
       <c r="F20"/>
-      <c r="G20" s="189" t="str">
+      <c r="G20" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G27)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G27)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G27)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G27)="h",0,IF(LOWER('Seznam účastníků'!G27)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G27),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="187" t="str">
+      <c r="B21" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A28)),'Seznam účastníků'!A28,"")</f>
         <v/>
       </c>
-      <c r="C21" s="187" t="str">
+      <c r="C21" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B28)),'Seznam účastníků'!B28,"")</f>
         <v/>
       </c>
-      <c r="D21" s="188" t="str">
+      <c r="D21" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B28)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E21" s="189" t="str">
+      <c r="E21" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B28)),IF(ISNUMBER(G21),D21*G21,G21),"")</f>
         <v/>
       </c>
-      <c r="F21" s="189"/>
-      <c r="G21" s="189" t="str">
+      <c r="F21" s="187"/>
+      <c r="G21" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G28)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G28)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G28)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G28)="h",0,IF(LOWER('Seznam účastníků'!G28)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G28),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="187" t="str">
+      <c r="B22" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A29)),'Seznam účastníků'!A29,"")</f>
         <v/>
       </c>
-      <c r="C22" s="187" t="str">
+      <c r="C22" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B29)),'Seznam účastníků'!B29,"")</f>
         <v/>
       </c>
-      <c r="D22" s="188" t="str">
+      <c r="D22" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B29)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E22" s="189" t="str">
+      <c r="E22" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B29)),IF(ISNUMBER(G22),D22*G22,G22),"")</f>
         <v/>
       </c>
-      <c r="F22" s="189"/>
-      <c r="G22" s="189" t="str">
+      <c r="F22" s="187"/>
+      <c r="G22" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G29)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G29)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G29)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G29)="h",0,IF(LOWER('Seznam účastníků'!G29)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G29),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="187" t="str">
+      <c r="B23" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A30)),'Seznam účastníků'!A30,"")</f>
         <v/>
       </c>
-      <c r="C23" s="187" t="str">
+      <c r="C23" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B30)),'Seznam účastníků'!B30,"")</f>
         <v/>
       </c>
-      <c r="D23" s="188" t="str">
+      <c r="D23" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B30)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E23" s="189" t="str">
+      <c r="E23" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B30)),IF(ISNUMBER(G23),D23*G23,G23),"")</f>
         <v/>
       </c>
-      <c r="F23" s="189"/>
-      <c r="G23" s="189" t="str">
+      <c r="F23" s="187"/>
+      <c r="G23" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G30)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G30)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G30)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G30)="h",0,IF(LOWER('Seznam účastníků'!G30)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G30),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="187" t="str">
+      <c r="B24" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A31)),'Seznam účastníků'!A31,"")</f>
         <v/>
       </c>
-      <c r="C24" s="187" t="str">
+      <c r="C24" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B31)),'Seznam účastníků'!B31,"")</f>
         <v/>
       </c>
-      <c r="D24" s="188" t="str">
+      <c r="D24" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B31)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E24" s="189" t="str">
+      <c r="E24" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B31)),IF(ISNUMBER(G24),D24*G24,G24),"")</f>
         <v/>
       </c>
-      <c r="F24" s="189"/>
-      <c r="G24" s="189" t="str">
+      <c r="F24" s="187"/>
+      <c r="G24" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G31)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G31)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G31)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G31)="h",0,IF(LOWER('Seznam účastníků'!G31)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G31),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="187" t="str">
+      <c r="B25" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A32)),'Seznam účastníků'!A32,"")</f>
         <v/>
       </c>
-      <c r="C25" s="187" t="str">
+      <c r="C25" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B32)),'Seznam účastníků'!B32,"")</f>
         <v/>
       </c>
-      <c r="D25" s="188" t="str">
+      <c r="D25" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B32)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E25" s="189" t="str">
+      <c r="E25" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B32)),IF(ISNUMBER(G25),D25*G25,G25),"")</f>
         <v/>
       </c>
-      <c r="F25" s="189"/>
-      <c r="G25" s="189" t="str">
+      <c r="F25" s="187"/>
+      <c r="G25" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G32)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G32)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G32)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G32)="h",0,IF(LOWER('Seznam účastníků'!G32)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G32),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="187" t="str">
+      <c r="B26" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A33)),'Seznam účastníků'!A33,"")</f>
         <v/>
       </c>
-      <c r="C26" s="187" t="str">
+      <c r="C26" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B33)),'Seznam účastníků'!B33,"")</f>
         <v/>
       </c>
-      <c r="D26" s="188" t="str">
+      <c r="D26" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B33)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E26" s="189" t="str">
+      <c r="E26" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B33)),IF(ISNUMBER(G26),D26*G26,G26),"")</f>
         <v/>
       </c>
-      <c r="F26" s="189"/>
-      <c r="G26" s="189" t="str">
+      <c r="F26" s="187"/>
+      <c r="G26" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G33)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G33)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G33)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G33)="h",0,IF(LOWER('Seznam účastníků'!G33)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G33),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="187" t="str">
+      <c r="B27" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A34)),'Seznam účastníků'!A34,"")</f>
         <v/>
       </c>
-      <c r="C27" s="187" t="str">
+      <c r="C27" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B34)),'Seznam účastníků'!B34,"")</f>
         <v/>
       </c>
-      <c r="D27" s="188" t="str">
+      <c r="D27" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B34)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E27" s="189" t="str">
+      <c r="E27" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B34)),IF(ISNUMBER(G27),D27*G27,G27),"")</f>
         <v/>
       </c>
-      <c r="F27" s="189"/>
-      <c r="G27" s="189" t="str">
+      <c r="F27" s="187"/>
+      <c r="G27" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G34)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G34)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G34)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G34)="h",0,IF(LOWER('Seznam účastníků'!G34)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G34),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="187" t="str">
+      <c r="B28" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A35)),'Seznam účastníků'!A35,"")</f>
         <v/>
       </c>
-      <c r="C28" s="187" t="str">
+      <c r="C28" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B35)),'Seznam účastníků'!B35,"")</f>
         <v/>
       </c>
-      <c r="D28" s="188" t="str">
+      <c r="D28" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B35)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E28" s="189" t="str">
+      <c r="E28" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B35)),IF(ISNUMBER(G28),D28*G28,G28),"")</f>
         <v/>
       </c>
-      <c r="F28" s="189"/>
-      <c r="G28" s="189" t="str">
+      <c r="F28" s="187"/>
+      <c r="G28" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G35)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G35)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G35)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G35)="h",0,IF(LOWER('Seznam účastníků'!G35)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G35),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="187" t="str">
+      <c r="B29" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A36)),'Seznam účastníků'!A36,"")</f>
         <v/>
       </c>
-      <c r="C29" s="187" t="str">
+      <c r="C29" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B36)),'Seznam účastníků'!B36,"")</f>
         <v/>
       </c>
-      <c r="D29" s="188" t="str">
+      <c r="D29" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B36)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E29" s="189" t="str">
+      <c r="E29" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B36)),IF(ISNUMBER(G29),D29*G29,G29),"")</f>
         <v/>
       </c>
-      <c r="F29" s="189"/>
-      <c r="G29" s="189" t="str">
+      <c r="F29" s="187"/>
+      <c r="G29" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G36)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G36)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G36)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G36)="h",0,IF(LOWER('Seznam účastníků'!G36)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G36),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="187" t="str">
+      <c r="B30" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A37)),'Seznam účastníků'!A37,"")</f>
         <v/>
       </c>
-      <c r="C30" s="187" t="str">
+      <c r="C30" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B37)),'Seznam účastníků'!B37,"")</f>
         <v/>
       </c>
-      <c r="D30" s="188" t="str">
+      <c r="D30" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B37)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E30" s="189" t="str">
+      <c r="E30" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B37)),IF(ISNUMBER(G30),D30*G30,G30),"")</f>
         <v/>
       </c>
-      <c r="F30" s="189"/>
-      <c r="G30" s="189" t="str">
+      <c r="F30" s="187"/>
+      <c r="G30" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G37)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G37)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G37)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G37)="h",0,IF(LOWER('Seznam účastníků'!G37)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G37),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="187" t="str">
+      <c r="B31" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A38)),'Seznam účastníků'!A38,"")</f>
         <v/>
       </c>
-      <c r="C31" s="187" t="str">
+      <c r="C31" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B38)),'Seznam účastníků'!B38,"")</f>
         <v/>
       </c>
-      <c r="D31" s="188" t="str">
+      <c r="D31" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B38)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E31" s="189" t="str">
+      <c r="E31" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B38)),IF(ISNUMBER(G31),D31*G31,G31),"")</f>
         <v/>
       </c>
-      <c r="F31" s="189"/>
-      <c r="G31" s="189" t="str">
+      <c r="F31" s="187"/>
+      <c r="G31" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G38)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G38)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G38)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G38)="h",0,IF(LOWER('Seznam účastníků'!G38)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G38),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="187" t="str">
+      <c r="B32" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A39)),'Seznam účastníků'!A39,"")</f>
         <v/>
       </c>
-      <c r="C32" s="187" t="str">
+      <c r="C32" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B39)),'Seznam účastníků'!B39,"")</f>
         <v/>
       </c>
-      <c r="D32" s="188" t="str">
+      <c r="D32" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B39)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E32" s="189" t="str">
+      <c r="E32" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B39)),IF(ISNUMBER(G32),D32*G32,G32),"")</f>
         <v/>
       </c>
-      <c r="F32" s="189"/>
-      <c r="G32" s="189" t="str">
+      <c r="F32" s="187"/>
+      <c r="G32" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G39)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G39)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G39)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G39)="h",0,IF(LOWER('Seznam účastníků'!G39)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G39),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="187" t="str">
+      <c r="B33" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A40)),'Seznam účastníků'!A40,"")</f>
         <v/>
       </c>
-      <c r="C33" s="187" t="str">
+      <c r="C33" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B40)),'Seznam účastníků'!B40,"")</f>
         <v/>
       </c>
-      <c r="D33" s="188" t="str">
+      <c r="D33" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B40)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E33" s="189" t="str">
+      <c r="E33" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B40)),IF(ISNUMBER(G33),D33*G33,G33),"")</f>
         <v/>
       </c>
-      <c r="F33" s="189"/>
-      <c r="G33" s="189" t="str">
+      <c r="F33" s="187"/>
+      <c r="G33" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G40)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G40)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G40)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G40)="h",0,IF(LOWER('Seznam účastníků'!G40)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G40),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="187" t="str">
+      <c r="B34" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A41)),'Seznam účastníků'!A41,"")</f>
         <v/>
       </c>
-      <c r="C34" s="187" t="str">
+      <c r="C34" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B41)),'Seznam účastníků'!B41,"")</f>
         <v/>
       </c>
-      <c r="D34" s="188" t="str">
+      <c r="D34" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B41)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E34" s="189" t="str">
+      <c r="E34" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B41)),IF(ISNUMBER(G34),D34*G34,G34),"")</f>
         <v/>
       </c>
-      <c r="F34" s="189"/>
-      <c r="G34" s="189" t="str">
+      <c r="F34" s="187"/>
+      <c r="G34" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G41)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G41)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G41)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G41)="h",0,IF(LOWER('Seznam účastníků'!G41)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G41),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="187" t="str">
+      <c r="B35" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A42)),'Seznam účastníků'!A42,"")</f>
         <v/>
       </c>
-      <c r="C35" s="187" t="str">
+      <c r="C35" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B42)),'Seznam účastníků'!B42,"")</f>
         <v/>
       </c>
-      <c r="D35" s="188" t="str">
+      <c r="D35" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B42)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E35" s="189" t="str">
+      <c r="E35" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B42)),IF(ISNUMBER(G35),D35*G35,G35),"")</f>
         <v/>
       </c>
-      <c r="F35" s="189"/>
-      <c r="G35" s="189" t="str">
+      <c r="F35" s="187"/>
+      <c r="G35" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G42)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G42)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G42)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G42)="h",0,IF(LOWER('Seznam účastníků'!G42)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G42),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="187" t="str">
+      <c r="B36" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A43)),'Seznam účastníků'!A43,"")</f>
         <v/>
       </c>
-      <c r="C36" s="187" t="str">
+      <c r="C36" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B43)),'Seznam účastníků'!B43,"")</f>
         <v/>
       </c>
-      <c r="D36" s="188" t="str">
+      <c r="D36" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B43)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E36" s="189" t="str">
+      <c r="E36" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B43)),IF(ISNUMBER(G36),D36*G36,G36),"")</f>
         <v/>
       </c>
-      <c r="F36" s="189"/>
-      <c r="G36" s="189" t="str">
+      <c r="F36" s="187"/>
+      <c r="G36" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G43)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G43)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G43)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G43)="h",0,IF(LOWER('Seznam účastníků'!G43)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G43),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="187" t="str">
+      <c r="B37" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A44)),'Seznam účastníků'!A44,"")</f>
         <v/>
       </c>
-      <c r="C37" s="187" t="str">
+      <c r="C37" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B44)),'Seznam účastníků'!B44,"")</f>
         <v/>
       </c>
-      <c r="D37" s="188" t="str">
+      <c r="D37" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B44)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E37" s="189" t="str">
+      <c r="E37" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B44)),IF(ISNUMBER(G37),D37*G37,G37),"")</f>
         <v/>
       </c>
-      <c r="F37" s="189"/>
-      <c r="G37" s="189" t="str">
+      <c r="F37" s="187"/>
+      <c r="G37" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G44)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G44)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G44)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G44)="h",0,IF(LOWER('Seznam účastníků'!G44)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G44),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="187" t="str">
+      <c r="B38" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A45)),'Seznam účastníků'!A45,"")</f>
         <v/>
       </c>
-      <c r="C38" s="187" t="str">
+      <c r="C38" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B45)),'Seznam účastníků'!B45,"")</f>
         <v/>
       </c>
-      <c r="D38" s="188" t="str">
+      <c r="D38" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B45)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E38" s="189" t="str">
+      <c r="E38" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B45)),IF(ISNUMBER(G38),D38*G38,G38),"")</f>
         <v/>
       </c>
-      <c r="F38" s="189"/>
-      <c r="G38" s="189" t="str">
+      <c r="F38" s="187"/>
+      <c r="G38" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G45)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G45)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G45)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G45)="h",0,IF(LOWER('Seznam účastníků'!G45)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G45),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="187" t="str">
+      <c r="B39" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A46)),'Seznam účastníků'!A46,"")</f>
         <v/>
       </c>
-      <c r="C39" s="187" t="str">
+      <c r="C39" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B46)),'Seznam účastníků'!B46,"")</f>
         <v/>
       </c>
-      <c r="D39" s="188" t="str">
+      <c r="D39" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B46)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E39" s="189" t="str">
+      <c r="E39" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B46)),IF(ISNUMBER(G39),D39*G39,G39),"")</f>
         <v/>
       </c>
-      <c r="F39" s="189"/>
-      <c r="G39" s="189" t="str">
+      <c r="F39" s="187"/>
+      <c r="G39" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G46)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G46)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G46)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G46)="h",0,IF(LOWER('Seznam účastníků'!G46)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G46),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="187" t="str">
+      <c r="B40" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A47)),'Seznam účastníků'!A47,"")</f>
         <v/>
       </c>
-      <c r="C40" s="187" t="str">
+      <c r="C40" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B47)),'Seznam účastníků'!B47,"")</f>
         <v/>
       </c>
-      <c r="D40" s="188" t="str">
+      <c r="D40" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B47)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E40" s="189" t="str">
+      <c r="E40" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B47)),IF(ISNUMBER(G40),D40*G40,G40),"")</f>
         <v/>
       </c>
-      <c r="F40" s="189"/>
-      <c r="G40" s="189" t="str">
+      <c r="F40" s="187"/>
+      <c r="G40" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G47)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G47)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G47)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G47)="h",0,IF(LOWER('Seznam účastníků'!G47)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G47),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="187" t="str">
+      <c r="B41" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A48)),'Seznam účastníků'!A48,"")</f>
         <v/>
       </c>
-      <c r="C41" s="187" t="str">
+      <c r="C41" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B48)),'Seznam účastníků'!B48,"")</f>
         <v/>
       </c>
-      <c r="D41" s="188" t="str">
+      <c r="D41" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B48)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E41" s="189" t="str">
+      <c r="E41" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B48)),IF(ISNUMBER(G41),D41*G41,G41),"")</f>
         <v/>
       </c>
-      <c r="F41" s="189"/>
-      <c r="G41" s="189" t="str">
+      <c r="F41" s="187"/>
+      <c r="G41" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G48)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G48)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G48)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G48)="h",0,IF(LOWER('Seznam účastníků'!G48)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G48),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="187" t="str">
+      <c r="B42" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A49)),'Seznam účastníků'!A49,"")</f>
         <v/>
       </c>
-      <c r="C42" s="187" t="str">
+      <c r="C42" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B49)),'Seznam účastníků'!B49,"")</f>
         <v/>
       </c>
-      <c r="D42" s="188" t="str">
+      <c r="D42" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B49)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E42" s="189" t="str">
+      <c r="E42" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B49)),IF(ISNUMBER(G42),D42*G42,G42),"")</f>
         <v/>
       </c>
-      <c r="F42" s="189"/>
-      <c r="G42" s="189" t="str">
+      <c r="F42" s="187"/>
+      <c r="G42" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G49)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G49)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G49)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G49)="h",0,IF(LOWER('Seznam účastníků'!G49)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G49),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="187" t="str">
+      <c r="B43" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A50)),'Seznam účastníků'!A50,"")</f>
         <v/>
       </c>
-      <c r="C43" s="187" t="str">
+      <c r="C43" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B50)),'Seznam účastníků'!B50,"")</f>
         <v/>
       </c>
-      <c r="D43" s="188" t="str">
+      <c r="D43" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B50)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E43" s="189" t="str">
+      <c r="E43" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B50)),IF(ISNUMBER(G43),D43*G43,G43),"")</f>
         <v/>
       </c>
-      <c r="F43" s="189"/>
-      <c r="G43" s="189" t="str">
+      <c r="F43" s="187"/>
+      <c r="G43" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G50)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G50)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G50)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G50)="h",0,IF(LOWER('Seznam účastníků'!G50)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G50),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="187" t="str">
+      <c r="B44" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A51)),'Seznam účastníků'!A51,"")</f>
         <v/>
       </c>
-      <c r="C44" s="187" t="str">
+      <c r="C44" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B51)),'Seznam účastníků'!B51,"")</f>
         <v/>
       </c>
-      <c r="D44" s="188" t="str">
+      <c r="D44" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B51)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E44" s="189" t="str">
+      <c r="E44" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B51)),IF(ISNUMBER(G44),D44*G44,G44),"")</f>
         <v/>
       </c>
-      <c r="F44" s="189"/>
-      <c r="G44" s="189" t="str">
+      <c r="F44" s="187"/>
+      <c r="G44" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G51)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G51)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G51)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G51)="h",0,IF(LOWER('Seznam účastníků'!G51)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G51),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="187" t="str">
+      <c r="B45" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A52)),'Seznam účastníků'!A52,"")</f>
         <v/>
       </c>
-      <c r="C45" s="187" t="str">
+      <c r="C45" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B52)),'Seznam účastníků'!B52,"")</f>
         <v/>
       </c>
-      <c r="D45" s="188" t="str">
+      <c r="D45" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B52)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E45" s="189" t="str">
+      <c r="E45" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B52)),IF(ISNUMBER(G45),D45*G45,G45),"")</f>
         <v/>
       </c>
-      <c r="F45" s="189"/>
-      <c r="G45" s="189" t="str">
+      <c r="F45" s="187"/>
+      <c r="G45" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G52)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G52)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G52)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G52)="h",0,IF(LOWER('Seznam účastníků'!G52)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G52),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B46" s="187" t="str">
+      <c r="B46" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A53)),'Seznam účastníků'!A53,"")</f>
         <v/>
       </c>
-      <c r="C46" s="187" t="str">
+      <c r="C46" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B53)),'Seznam účastníků'!B53,"")</f>
         <v/>
       </c>
-      <c r="D46" s="188" t="str">
+      <c r="D46" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B53)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E46" s="189" t="str">
+      <c r="E46" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B53)),IF(ISNUMBER(G46),D46*G46,G46),"")</f>
         <v/>
       </c>
-      <c r="F46" s="189"/>
-      <c r="G46" s="189" t="str">
+      <c r="F46" s="187"/>
+      <c r="G46" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G53)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G53)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G53)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G53)="h",0,IF(LOWER('Seznam účastníků'!G53)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G53),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B47" s="187" t="str">
+      <c r="B47" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!A54)),'Seznam účastníků'!A54,"")</f>
         <v/>
       </c>
-      <c r="C47" s="187" t="str">
+      <c r="C47" s="185" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B54)),'Seznam účastníků'!B54,"")</f>
         <v/>
       </c>
-      <c r="D47" s="188" t="str">
+      <c r="D47" s="186" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B54)),$B$6-$B$5+1,"")</f>
         <v/>
       </c>
-      <c r="E47" s="189" t="str">
+      <c r="E47" s="187" t="str">
         <f>IF(NOT(ISBLANK('Seznam účastníků'!B54)),IF(ISNUMBER(G47),D47*G47,G47),"")</f>
         <v/>
       </c>
-      <c r="F47" s="189"/>
-      <c r="G47" s="189" t="str">
+      <c r="F47" s="187"/>
+      <c r="G47" s="187" t="str">
         <f>IF(LOWER('Seznam účastníků'!G54)="d",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-30,40)),IF(LOWER('Seznam účastníků'!G54)="i",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-40,30)),IF(LOWER('Seznam účastníků'!G54)="v",MIN('Soupis výdajů'!$D$47,MAX('Soupis výdajů'!$D$47-50,20)),IF(LOWER('Seznam účastníků'!G54)="h",0,IF(LOWER('Seznam účastníků'!G54)="n",'Soupis výdajů'!$D$47,IF(ISBLANK('Seznam účastníků'!G54),"","? dítě, instruktor, vedoucí, hlavní, nečlen ?"))))))</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="190"/>
-      <c r="C48" s="190"/>
-      <c r="D48" s="191"/>
-      <c r="E48" s="192"/>
+      <c r="B48" s="188"/>
+      <c r="C48" s="188"/>
+      <c r="D48" s="189"/>
+      <c r="E48" s="190"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="193">
+      <c r="D49" s="191">
         <f>SUM(D12:D47)</f>
         <v>0</v>
       </c>
-      <c r="E49" s="189">
+      <c r="E49" s="187">
         <f>SUM(E12:E47)</f>
         <v>0</v>
       </c>
